--- a/formalidea-v1-NL.xlsx
+++ b/formalidea-v1-NL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,4224 +448,4344 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>m2kkqo5zi6gmq-HMNL-1-1</t>
+          <t>m2kos8of3weda-HMNL-73-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A transformer toy which can be manipulated to be a car or a boat. Starting as a car, the wheels can be rotated inwards, and the sides of the car pushed in to create a boat. The opposite can be done to manipulate the boat and turn it back into a car.</t>
+          <t>A toy car and boat in one. The car can be pushed around in the house, which can then be turned into a boat to use in a bath or swimming pool. There could be subtle shifts in design for the child to do to go from one state to another. The people could also have different clothes to go from car to boat.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>m2kkqo5zi6gmq-HMNL-1-2</t>
+          <t>m2m4bqtrkswl5-HMNL-417-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A toy that can be flipped vertically, with a car on one side and a boat on the other side. The two parts can be connected and disconnected with a plug-type mechanism.</t>
+          <t>A car sitting on top of a boat and both are fixed to a level horizontal platform that the child can hydroplane in water by pushing the toy.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>m2kkqo5zi6gmq-HMNL-1-3</t>
+          <t>m2knudkb7fk0d-HMNL-49-2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A boat with a small toy car attached within the boat, mimicking a boat that ships cars. The car can be disconnected from the boat to be played with separately.</t>
+          <t>a car and a boat could be combined to make an exciting climbing frame.If the boat was upended you could put a seat inside as well.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>m2kl3jo2fxe83-AINL-5-1</t>
+          <t>m2m0wjlp3tsnq-AINL-349-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introducing the AR Gaming Hydrocar - This toy integrates augmented reality into a hybrid vehicle. AR goggles project interactive game scenarios into real world surroundings. The child can wear the AR goggles which sync to a camera on the remote controlled car, which is an amphibious car, allowing it to also sail on water like a boat!</t>
+          <t>aquaracer adventure vehicle. Is an innovative to thats the combination of a durable car and a dynamic boat, which ensures endless fun for children aged 5-11.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>m2kl3jo2fxe83-AINL-5-2</t>
+          <t>m2km9n1tcpq18-AINL-13-3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sea Eco Fairer Kit - This toy is designed to teach children about environmentally friendly energy sources through play. Also combines a science and technology element too. This car is amphibious and can sail on water and drive on land. It is powered by solar energy through solar panels which the children can attach to the car themselves. The toy is also fully made from recycled materials</t>
+          <t>AquaRally cruiser. This is a dynamic remote control toy that merges the capabilities of a high speed car with those of a boa with a rugged exterior but amphibious design allowing for transition between land and water.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>m2kl3jo2fxe83-AINL-5-3</t>
+          <t>m2m3iqj516hkj-AINL-405-2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Floating Race Track Set - This toy involves children creating their own race track which can include land based and water based elements. This is achieved through thje children placing waypoints or checkpoints that the car/boat must pass to complete the race. The remote control car can retract its wheels and deploy a propellar for water sections of the race</t>
+          <t>A floating boat / platform with a few sized ramps near the edge. On the platform will be a pull back motor car. The idea is to see how far the car can be launched of the platform. This would have a measuring tape built into the platform to create competition. The car may be able to be customized with different wheels / body shape to create variety.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>m2km9dmge4d18-HMNL-9-1</t>
+          <t>m2m7pi4hkjr5x-AINL-477-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>River Rover - a dual-action toy that switches from a Land Rover to a boat.  this toy should have a hinge system to retract the tyres to turn the car into a boat. this toy should be made of plastic to ensure it is able to switch from land to water.  it should be accessorised with headlights and windows like a car and be complete with a detachable sail like a boat.</t>
+          <t>adventura petite is great for imaginative play - perfect for smaller hands and great for transporting.  Small gadgets within the adventure petit allow fun imaginative play and easy packing.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>m2km9dmge4d18-HMNL-9-2</t>
+          <t>m2m0wjlp3tsnq-AINL-349-3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>River Racer - a combination of a racing boat and a racing car, composed of bright colours and sporty decals</t>
+          <t>thunderwave hyper catamaran, is an astonishing toy that is designed to dash across water at a suprising speed which even outpaces speedboats, a toy for kids aged 5-11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>m2km9dmge4d18-HMNL-9-3</t>
+          <t>ATTENTION_CHECK_7_NL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>From river to road - a small car/boat  with a detachable sail like a boat and bright colours to appeal to kids  hinges to retract the tires and transform the car into a boat</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>m2km9n1tcpq18-AINL-13-1</t>
+          <t>m2qhkkkebpms4-AINL-517-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HydroRacer 5000. This toy blends the thrill of racing cars with the adventurous spirit of boating. It features a sleek aerodynamic design</t>
+          <t>Surf-turf explorer Magnetic car-boat set with interchangeable wheels, a propeller and colorful tiles. Built for exciting land-to-sea exploration adventures. and more.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>m2km9n1tcpq18-AINL-13-2</t>
+          <t>m2kujxnx3bdrf-AINL-189-2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BathCruiser Turbo. This toy combines the excitement of a speedy car with the fun of a boat specially created for bath time. It floats effortlessly in the water whilst having robust wheels to enable it to roll around the edges of the bath. Vibrant colours and waterproof decals capture kids imaginations.</t>
+          <t>Introducing the 'Auto Aqua Adventurer', a magical transformation outfit perfect for an adventurous child! This fancy dress transforms from a sleek car to a whimsical boat with just a button press. As a car, the costume casts vibrant projections of a whimsical cartoon world, where roads twist and turn with famous characters like talking animals and fantastical racers, each in unique, imaginative vehicles. Switching to boat mode, it immerses the room in an enchanting underwater realm, with beloved sea characters such as friendly dolphins, mermaids and treasure-hunting turtles. Both transformations ensure hours of imaginative exploration and play.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>m2km9n1tcpq18-AINL-13-3</t>
+          <t>m2kpuix85gs3q-AINL-93-1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AquaRally cruiser. This is a dynamic remote control toy that merges the capabilities of a high speed car with those of a boa with a rugged exterior but amphibious design allowing for transition between land and water.</t>
+          <t>A hybrid racer - a toy vehicle that is designed to be both a car and a boat AT THE SAME TIME.  The vehicle's lower half resembles a speedboat.  This has water jets to propel it along the road, with the added bonus of pushing their race opponents that are gaining on them even further behind them with powerful jets of water.  It can also deal with wet conditions on the road and shallow water with its wheels that extend outwards for balance.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>m2kmb8c916li7-AINL-21-1</t>
+          <t>m2ktotg7kkykf-AINL-173-1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A car can transform into a boat when it is on water and a car when it is on land.</t>
+          <t>A small handheld toy racing car with a boat mode where pontoon pop out to allow the car to float in the water.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>m2kmb8c916li7-AINL-21-2</t>
+          <t>m2l0hk8ch4e9t-HMNL-305-3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A do it yourself building kit for kids. It encourages creativity for kids where they can build their own boat and car.</t>
+          <t>A nautical themed car seat put your kids in the captians chair. The carseat is designed to put your kid at the helm of the car trip, complete with a pretend throttle, a navigation system and aft storage for the kids favorite activities. While you are navigating the road, let the captains car seat navigate your childs imagination.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>m2kmb8c916li7-AINL-21-3</t>
+          <t>m2komtx5dfvd8-AINL-69-3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A rescue adventure play set where the car can tow the boat on land and the boat can tow the car on water.</t>
+          <t>The HoverSplash Recon Cruiser - a revolutionary hybrid toy combining a car and a boat with drone technology. This innovative toy features a compact and futuristic design with central seating pod of action figures (sold separately). While on land, its hardy wheels can traverse any surface and can transform effortlessly with the flip of a switch into a buoyant mode to traverse water. The highlight of this is that it can hove a few inches above ground or water, making it more accessible across a variety of terrains, encouraging exploration. It records to a cloud server through the app. It's encased in heavy duty materials to withstand the hardy play of kids between 4-11 and comes with a large button kid friendly remote.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>m2kmrlphygt7l-AINL-29-1</t>
+          <t>m2m174nigbtt8-HMNL-353-2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Transforming Amphibious Vehicle Toy: Features a dynamic car-to-boat conversion, retractable wheels, and expanding fins. It comes with a floating race track, creating thrilling water-surface racing adventures, enhanced by bright colours and sound effect</t>
+          <t>A remote controlled car with inflatable wheels. Small paddles extending from the tires allow it to drive on top of water.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>m2kmrlphygt7l-AINL-29-2</t>
+          <t>m2m4xtd7wizdm-AINL-437-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The SpeedRacer Hybrid: A sleek toy that morphs from an Formula 1 car to a speedboat, featuring aerodynamic fins, and a vibrant design for thrilling land and water play adventures.</t>
+          <t>Introducing the Wave Rider Cruiser, a dynamic and playful toy that cleverly merges a car and boat, designed to stimulate imaginative play. This toy features a rugged, all-terrain vehicle design with detachable buoyant wheels that transform into fun paddle systems on water. As a car, it boasts vibrant colours and shock-absorbing capabilities for thrilling off-road adventures. With a simple twist mechanism, the wheels switch to paddles, and the toy becomes a buoyant boat, capable of smoothly navigating any tub or pool, and perfect for bath time! The Wave Rider Cruiser includes a mini adventure map and themed stickers, encouraging storytelling and enhancing playtime scenarios. The Wave Rider Cruiser also includes automatic LED lights that change colours and turn while the vehicle is a car and off while the vehicle is a boat in the water.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>m2kmrlphygt7l-AINL-29-3</t>
+          <t>m2rlegtw8or2a-HMNL-521-2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The AquaDrive Convertible: A floating toy car with pedal-powered movement, a steering wheel for navigation, and a detachable roof doubling as a kayak paddle, offering dual adventures in  the pool.</t>
+          <t>I would make a toy battleship that could store various other vehicles including amphibious landing crafts. These vehicles could then be released from the ship.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>m2kmyrigc36la-HMNL-33-1</t>
+          <t>m2kkqo5zi6gmq-HMNL-1-3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I will design a toy car that can work in floor and also in water, to have the shape of a boat. It can be played with in both land and water. I will call it Caraqua.</t>
+          <t>A boat with a small toy car attached within the boat, mimicking a boat that ships cars. The car can be disconnected from the boat to be played with separately.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>m2kmyrigc36la-HMNL-33-2</t>
+          <t>m2l0d8llovsre-HMNL-297-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I will design a transformer car that can transform into a boat. Inspiration is from the movie transformer but none of the cars transforms into a boat. This would be a cool feature for kids. I will call it Aquashifter</t>
+          <t>a boat that acts like a barge and can place a car on top and can be placed in water to act like a ferry.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>m2kmyrigc36la-HMNL-33-3</t>
+          <t>m2q90ju84i7q1-HMNL-489-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I will design a car by making the front to have the shape of a boat and the back to have the shape of a car, this would be appealing to kids as well. It will look like a scifi design, with a vibrant colour.</t>
+          <t>The HydroTruck! A functional toy, a two in one. It starts out as a car, that can drive around with big chunky wheels like a small monster truck. When arriving at a body of water you can press the big red button inside the car. It extends the front of the car outwards, whilst flipping the wheels from vertical to horizontal. It then allows the toy to bop about on the water for play. It could even have a horn inside the car that changes to a barge style fog horn when in boat mode. When heading back to land, press the big red button again to flip the wheels back upright, and shorten the wheel base ready to drive. Its great for bath time for kids, as well as zooming around the living room.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>m2kndjq851wkj-HMNL-41-1</t>
+          <t>m2kq77zeptfdk-AINL-101-3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Presenting the AquaRacer : this cool toy combines the sleek lines of a speedboat with that of a sports car. The wheels fold away when not in use, revealing fins on the reverse of the wheel so the boat can steer. Fully waterproof and floats in the bath, so your child can enjoy the AquaRacer at any time.</t>
+          <t>Dual Realm Voyager marries car and boat in one distinct design. THe model features a chassis that is half sleek car, half streamlined boat. The front end is a classic sports car, with wheels for land navigation. At the back is a boat tail crafted for buoyancy and water</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>m2kndjq851wkj-HMNL-41-2</t>
+          <t>ATTENTION_CHECK_2_NL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The latest innovation in toys, presenting the Mighty Mover! This rugged amphibian vehicle, presented in camouflage colours, has fully moveable wheels and will float in water. It shoots small foam darts to fully emphasise its tough credentials - nobody will want to mess with this floating tank!</t>
+          <t>Please select "Extremely" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>m2kndjq851wkj-HMNL-41-3</t>
+          <t>m2krxie1v5a0c-AINL-133-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>You've heard of Formula One, now get ready for Formula B! This F1-inspired car design can clip into the hull of a speedboat, making a toy that's versatile and looks cool. Kids will love it and want to play with it! Comes in a variety of colours and boat hulls so you can mix and match your favourite colours and designs, so whether you're on land on on the water, you'll be a champion with Formula B.</t>
+          <t>HydroWheels Adventure Cruiser: A dual-purpose vehicle designed with inflatable buoyancy, transforming from a sleek car to a nimble boat, powered through steering adjustments.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>m2knoj3zpaab0-AINL-45-1</t>
+          <t>m2m5r0ph3lbut-AINL-453-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>aquaracer  aquaracer is a aerodynamic toy which can transition between land and water with rectranle wheels. in water the wheels rectract and it becomes a boat</t>
+          <t>Aqua cruise adventure boat for children aged 3 to 6. It features vibrant colours and switches from boat to car with functional wheels and a hidden propeller to be used when the wheels are retracted.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>m2knoj3zpaab0-AINL-45-2</t>
+          <t>m2krgvphzcdte-AINL-125-3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hydro cruiser  the hydro cruiser has rectrable rudder and propellers for smooth water navigation. out side of the water it has sturdy rubber wheels for effortless use</t>
+          <t>The toy car comes with a controller with intuitive control, this will offer easy maneuverability featuring direction joysticks and a mode switch button for land and water.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>m2knoj3zpaab0-AINL-45-3</t>
+          <t>m2kwx25q5bdmk-AINL-229-1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>wave runner express this amazing toy has an adjustable suspension system allowing it ot various terrain with ease,on water or land</t>
+          <t>Splash Rover Racer  This vehicle boast of all terrain capabilities, moving seamlessly from driveway to swimming pool. It is rugged, waterproof design ensures durability that allows it transform the car into a stable water racer. Kids can steer their way through land using a joystick the use a built in wind vane to navigate when on water. It will be equipped with exhilarating features such as built in splash cannons for friendly water battles. it engages imagination and action packed play as kids race their vehicles in exciting adventure scenarios.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>m2knudkb7fk0d-HMNL-49-1</t>
+          <t>m2m5yr7dwffsa-AINL-461-2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a car and a boat could be combined to make a fun, amphibious vehicle, a sail could be added for extra speed and stability.</t>
+          <t>Going one step further, the TripleTerrain Explorer melds a car, boat, and train toy into one. It's a toy car that has detachable tracks, so that the car can be used like a toy train. It also can transform into a buoyant boat featuring side pontoons that provide stability on the water. The flip up paddles drive it forward in aquatic play. For train mode, the car's wheels fit seamlessly onto included tracks that can be configured in multiple layouts, sparking hours of imaginative railway adventures.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>m2knudkb7fk0d-HMNL-49-2</t>
+          <t>m2kvhaj0c21zw-AINL-205-2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>a car and a boat could be combined to make an exciting climbing frame.If the boat was upended you could put a seat inside as well.</t>
+          <t>Introducing the Terraformer Squad, an innovative toy set for children aged 5-11, merging play with ecological awareness. This set features modular vehicles like the All-Terrain Rover and Eco-Droid, designed to transform and tackle diverse ecosystems. Through a connected app, kid project virtual environments where their squadplants seeds and cleans up pllutants, learning about nature's balance. Vehicles display educational facts about ecosystems, fostering teamwork as children swap parts to adapt to new challenges. The Terraformer Squad offers and engaging play experience that entertains while cultivating environmental stewardship and curiosity within young adventurers.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>m2knudkb7fk0d-HMNL-49-3</t>
+          <t>m2kojcoitjb5v-HMNL-65-3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Combine the car and boat to make a pirate themed go-cart, or boat cart. If a sail was added this could be a pretty fast go-cart...very cool.</t>
+          <t>A toy ferry boat big enough to have four to six toy cars that can be loaded and unloaded from the boat off a ramp after docking.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>m2ko27n9jy57w-AINL-53-1</t>
+          <t>m2q9a5waka67u-AINL-501-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>An amphibious vehicle which transforms from a car to a boat and vice versa easily. The wheels fold away and drive the boat as propellors.</t>
+          <t>WaveRider Explorer, a multi-functional hybrid vehicle for young adventurers. The toy is a vibrant dual-function machine with oversized soft rubber wheels and a sleek, detachable hull for water excursions.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>m2ko27n9jy57w-AINL-53-2</t>
+          <t>m2krre0v7esf8-HMNL-129-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>This toy consistes of a small toy car which drives down a ramp on to a boat on water. When the car lands on the boat, the boat moves to the opposite bank. It works as a ferry.</t>
+          <t>A toy car that that can go both in the water and on land like a jetski with wheels on it.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>m2ko27n9jy57w-AINL-53-3</t>
+          <t>m2q90ju84i7q1-HMNL-489-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>This toy has the hull of a large toy boat with the superstructure of a car in which the child sits. The car pedals operate a simple propellor at the rear of the boat which propels the craft forward in the pool.</t>
+          <t>The Car-Go Carrier. A unique toy that resembles a small cargo style carrier ship, with loads of tiny cargo crates all in different colours spread across the ship. The boats designed to float about on the water for small kids during bath time. The cargo crates are openable, with small cars in a few of them as well as other random items. The idea is that the kids can have fun opening up the cargo boxes and mix &amp; matching whats inside. They can also cause chaos by throwing out all the cars and the like to either the deck of ship itself or the depths of the water.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>m2ko6asjd367j-HMNL-57-1</t>
+          <t>m2knoj3zpaab0-AINL-45-3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AquaCar- This is a car-boat toy that can run on both water and land allowing children to play imaginatily, creating an adventure.</t>
+          <t>wave runner express this amazing toy has an adjustable suspension system allowing it ot various terrain with ease,on water or land</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>m2ko6asjd367j-HMNL-57-2</t>
+          <t>m2m4mukonj88m-AINL-429-3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Splash Racer- This is a car toy that can transform into a boat or a race car. This toy can also run on both water and land.</t>
+          <t>The 'Pocket Aqua Racer' is a compact hybrid tiy that effortlessly transitions between car and boat modes, and fits in a child backpack</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>m2ko6asjd367j-HMNL-57-3</t>
+          <t>m2m23lxpm3ev9-HMNL-377-1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hydro car- This is a toy that can transform from a boat into a car. It allows kids to play imaginatively.</t>
+          <t>RIDEABLE DRIVEABLE CAR THAT CAN ALSO BE USED IN THE WATER - CAN DRIVE FROM LAND INTO THE WATER AND IT OPERATES LIKE A BOAT ON THE WATER. BATTERY POWERED, HIGH QUALITY CONSTRUCTION BUT LIGHTWEIGHT.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>m2kojcoitjb5v-HMNL-65-1</t>
+          <t>m2m5yr7dwffsa-AINL-461-3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A Lego like construction set that allows a child to put together an amphibious car that can convert from a boat to a car in minutes using different parts and it would have a few different designs to choose from.</t>
+          <t>The WaveRider Explorer is an adventure companion for children ages 5-11. It combines the thrill of a rechargeable ride-on car with the safety of a beach-friendly floating boat. On sand, the WaveRider effortlessly navigates thanks to its robust, all-terrain wheels and intuitive controls... when adventure shifts to the shore, a quick transformation turns the car into a buoyant mini-boat, perfect for floating along gentle beach waves. Integrated safety features such as rollover detection, a cloth-padded wheel that can be unrolled for use as a sail, and an inflatable hull make this an incredible toy. Parental supervision encouraged; this ride-on electric car and semi-electric mini-boat are not substitutes for proper safety flotation devices. The boat is weighted to stay upright in the water and upright on land.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>m2kojcoitjb5v-HMNL-65-2</t>
+          <t>m2kp0v8lsrt92-AINL-77-2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A remote-controlled vehicle for a child to play with indoors on carpet and in a bathtub, or outdoors as well on rugged terrain.  It would be designed to convert easily between land and water use.</t>
+          <t>Starchase rocket rover. An interstellar themed vehicle. This hybrid vehicle resembled the rugged mars rover, the adaptable treads allow for fun on any surface, and the attachable floatation device (sold seperately) allows for the adventure to spill over to the water. The cockpit is the control centre where the child can pilot the rover, including the controllable picker arm to collect samples and analyse them on board.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>m2kojcoitjb5v-HMNL-65-3</t>
+          <t>m2m3iqj516hkj-AINL-405-1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A toy ferry boat big enough to have four to six toy cars that can be loaded and unloaded from the boat off a ramp after docking.</t>
+          <t>AquaRacer Duo. A remote control car / boat. When in water the wheels retract into the chassis. And then can drop back out when on land.  The remote will have a screen as the car is toy is equiped with a camera so the user has a first person view.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>m2komtx5dfvd8-AINL-69-1</t>
+          <t>m2qhkkkebpms4-AINL-517-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Turbo Tideracer. A thrilling and fun toy that puts a modern spin on transformers as it morphs effortlessly from a speedy car to a cool boat. Using new technology and usb-c rechargeable, it's requires just a simple push of a button - the Turbo Tideracer's wheels fold in seamlessly as the pontoons extend. Kids will love winding up the manual propeller (an auto-version is also available) and watching it speed through water. The toy lights up with colourful LED lights as it transforms giving it a sprinkle of magic and anticipation with every play session. Perfect for time in the tub or backyard races!</t>
+          <t>The Aquaspeedo This is a transforming boat-car with retractable wheels and a propeller, allowing kids to seamlessly transition from water to land thereby building imaginative storytelling.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>m2komtx5dfvd8-AINL-69-2</t>
+          <t>m2kspv5om6wje-HMNL-153-2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Drift and Float Racer Bots are exicitng and fun toys for kids to play with together! These are individual little bots or robots that are controlled via an included remote or an app on a tablet or phone. They can play fun guided missions and get points, playing against and with one another. The bots are part car part boat, so they can easily move across different terrains. They also have Bluetooth connectivity so they can communicate with each other, encouraging fun and cooperative play.</t>
+          <t>The Transformer: like the transforming toys of yesteryear this  completely functional toy motor car seats one person and converts into a boat at the flick of a switch! Ideal for holidays and trips to the lake, the Transformer gives you the best of both worlds</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>m2komtx5dfvd8-AINL-69-3</t>
+          <t>m2l16144e7ao4-HMNL-321-2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The HoverSplash Recon Cruiser - a revolutionary hybrid toy combining a car and a boat with drone technology. This innovative toy features a compact and futuristic design with central seating pod of action figures (sold separately). While on land, its hardy wheels can traverse any surface and can transform effortlessly with the flip of a switch into a buoyant mode to traverse water. The highlight of this is that it can hove a few inches above ground or water, making it more accessible across a variety of terrains, encouraging exploration. It records to a cloud server through the app. It's encased in heavy duty materials to withstand the hardy play of kids between 4-11 and comes with a large button kid friendly remote.</t>
+          <t>a transformable toy that converts from a sleek racing car to a speedboat. Features, retractable wheels and foldable wings for seamless transformation</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>m2kos8of3weda-HMNL-73-1</t>
+          <t>m2kvhaj0c21zw-AINL-205-1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A toy car and boat in one. The car can be pushed around in the house, which can then be turned into a boat to use in a bath or swimming pool. There could be subtle shifts in design for the child to do to go from one state to another. The people could also have different clothes to go from car to boat.</t>
+          <t>Introducing the HydroTrack Explorer, the ultimate hybrid adventure toy for children aged 5-11, blending the best of land and sea at play. This dynamic vehicle seamlessly transitions from car to boar mid-flight, launching off a custom track into a sizable water basin for splash-filled races. Enhance the experience with AR goggles, overlaying a virtual world onto the physical track, complete with challenges and power-ups. Intuitive, gesture-based wristband controllers let children navigate the Explorer with natural movements, fostering coordination and creativity. The HydroTrack Explorer transforms traditional play into captivating multi-sensory storytelling, setting a new standard for innovative toy experiences.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>m2kos8of3weda-HMNL-73-2</t>
+          <t>m2m23lxpm3ev9-HMNL-377-2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A remote control car and boat. The car can be driven by the child and controled from a distance. The wheels can then be folded into the car and it turns into a boat and can be sailed by remote control on a lake or pond. The car/boat can fit in figures or toys from other collections.</t>
+          <t>A BOAT THAT WHEN DRIVEN CLOSE TO THE SHORT A BUTTON IS PRESSED AND THE BOTTOM HALF OF A CAR EXTENDS FROM THE KEEL OF THE SHIP ELIMINATING THE NEED FOR A TRAILER TO MOVE IT FROM HOME TO THE WATER.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>m2kos8of3weda-HMNL-73-3</t>
+          <t>m2ky7v1pqdsj2-AINL-245-1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A virtual reality headset that allows the child to travel in a car/boat. The child can drive the car/boat and the VR headset gives the impression of movement, as well as a world surrounding their vechile and their journey. They can invite other children with headsets to join them and be driven in their car or boat, before switching vechiles and hopping on board their friends' vechile.</t>
+          <t>Mega cruiser, this toy combines four cars that when put together, so slot together will create a big yacht style cruiser</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>m2kp0v8lsrt92-AINL-77-1</t>
+          <t>m2ktotg7kkykf-AINL-173-3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cosmicbubble glider pod, a vehicle for a young child to sit in, defying the conventions between land and sea. The toy takes the shape of a glowing orb and mimics the feeling of floating in a bubble. On water, the toy is powered by microjects allowing the user to glide along the surface effortlessly. On land, the ball acts as a zorbing ball, allowing the child to roll around inside the bubble</t>
+          <t>A boat toy that launches a car forward onto land the moment it bumps into a dock. A spring mechanism is used to provide momentum for the car the moment it hits a dock.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>m2kp0v8lsrt92-AINL-77-2</t>
+          <t>m2ktlu2z3ixfz-HMNL-169-2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Starchase rocket rover. An interstellar themed vehicle. This hybrid vehicle resembled the rugged mars rover, the adaptable treads allow for fun on any surface, and the attachable floatation device (sold seperately) allows for the adventure to spill over to the water. The cockpit is the control centre where the child can pilot the rover, including the controllable picker arm to collect samples and analyse them on board.</t>
+          <t>We can create a floating car-boat which will be a convertible vehicle and also it will be a convertible toy that can be a more attachment. it will be a very informative toy which will help the children to learn about convertible things.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>m2kp0v8lsrt92-AINL-77-3</t>
+          <t>m2krxie1v5a0c-AINL-133-2_duplicate</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Introducing the urbancruiser patrol wagon, the first land and sea vehicle which allows 5-11 year olds to relive their favourite TV show, the wire. Whether you have a little mcnutty who wants to cruise the streets of west baltimore collecting vials and chasing down stringer bell, or your child wants to take a quite frankly baffling journey down to the docks which really confused fans by following an almost entirely different narrative, to keep an eye on the shenanhigans of the dockworkers union, the urbancruiser patrol wagon has you covered.</t>
+          <t>HydroWheels Adventure Cruiser: A dual-purpose vehicle designed with inflatable buoyancy, transforming from a sleek car to a nimble boat, powered through steering adjustments.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>m2kpk3zdod0iz-AINL-85-1</t>
+          <t>m2m0sfqrktntr-AINL-341-2_duplicate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A car in bright primary colours, which can be easily transformed into a boat. The toy comes with accessories, which can be added to, to make play at the heart of this toy. Accessories such as, people and spare wheels and lots of parts which can be added and taken away from the toy.</t>
+          <t>A modular set that can be combined in various ways to create multiple car-boat creations. Snap on parts are easy for kids to work with and follow their creativity.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>m2kpk3zdod0iz-AINL-85-2</t>
+          <t>m2kyoskr6dcwz-HMNL-257-1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A colourful boat, which has a remote control. The boat can be played with in the bath, on lakes or rivers. It can be controlled from the land or in the water. There is a special button, which when pressed makes the boat jump in the air and transform into a car. This happens when the boat is taken onto land. It comes in a number of colours, which are attractive to children. It has different difficulty levels for the different age groups on the remote control.</t>
+          <t>A huge climbing frame combining half a car and half a boat with a decked area like a boat &amp; lookout post &amp; sail foghorn and the car should have seats, a steering wheel and horn</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>m2kpk3zdod0iz-AINL-85-3</t>
+          <t>m2m174nigbtt8-HMNL-353-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A car which has a removable skin, so the children can change the colours to suit their age and style. This car has a skin which also changes the car into a boat, which fixes across the wheels and doors. There is a sail which can be fixed into the inside of the car to further make the boat exciting. The colours include primary colours, such as red, blue and yellow which are popular with 5 year olds. Also, pastel colours which also appeals to this age group for their soothing properties. Then more complex colour palettes, such as teal and magenta for the older children. The car has a pull back element so the car which then drives forward by itself when the car is released. The boat can go on water and be pushed along or just float using its sails.</t>
+          <t>A hotwheels sized toy car that fits into a similar sized boat hull, with 4 divets to place the car wheels. Mix and match different designs</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>m2kpoh5olsoga-HMNL-89-1</t>
+          <t>m2ktz1cy721fa-HMNL-177-3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The 'Land-to-Sea Convertible', a toy car which, at the press of a button, can retract its wheels and drop down a smooth hull, allowing kids to play with a toy vehicle in a novel and fantastical way -- taking huge leaps and landing in the water with a splash.</t>
+          <t>A car that attaches a trailer to transport a boat. Like going fishing with grandpa - which makes this toy memorable for most kids, they will have fond memories of their life attached to this toy giving them a reason to play with it. There is also the possibility of this boat being a jet-ski or a kayak, and being placeable on top of the car, and being able to switch which types of boat are trailed by the type of trailer the car is able to handle - making it educational and realistic for them to work out which boat belongs to which trailer and the uses of each. This is inclusive of family members who have experience with boats/cars/mechanics and can help engage their learning/imagination wondering which holiday to take their toy on! These boats can also be thematic - a lot of cartoons have different boats/water vehicles that can be placed here and open up a world of fun for the kids to experience.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>m2kpoh5olsoga-HMNL-89-2</t>
+          <t>m2q6ytxmptzbv-HMNL-481-3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A bath toy which turns from a car into a boat design when it comes into contact with water, giving kids a fun and exciting toy that makes bath time special, and limiting clutter and mess by combining two great kinds of toy into one item.</t>
+          <t>a car big enough for them to sit in, that has a propeller on the back, rather than working wheels</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>m2kpoh5olsoga-HMNL-89-3</t>
+          <t>m2kqe4wa07t8v-HMNL-105-1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A car toy which, at the touch of a button, releases flotation airbags around its sides, allowing for fun play outside in paddling pools and in the bath.</t>
+          <t>Hybrid Car &amp; Boat: This is an hybrid toy machine of a car that can be transformed into a boat. This can typically be designed to be used in a pool.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>m2kpuix85gs3q-AINL-93-1</t>
+          <t>m2kydd2wjowhj-HMNL-249-2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A hybrid racer - a toy vehicle that is designed to be both a car and a boat AT THE SAME TIME.  The vehicle's lower half resembles a speedboat.  This has water jets to propel it along the road, with the added bonus of pushing their race opponents that are gaining on them even further behind them with powerful jets of water.  It can also deal with wet conditions on the road and shallow water with its wheels that extend outwards for balance.</t>
+          <t>A construction type of toy that allows the child build either a car or a boat using the material available. It should be easy to transform from car to boat and allow the child have fun designing the unique elements of each.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>m2kpuix85gs3q-AINL-93-2</t>
+          <t>m2m3pt9l86i1l-HMNL-409-2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A vehicle that can be a car or a boat - an amphibious vehicle that has inflatable wheels to transform into pontoons so it can float on the water.  This vehicle is powered by voice commands, even including switch to boat/car mode.</t>
+          <t>This toy would be an exciting car that turns into a boat when exposed to water. It would allow kids to drive it on land like a normal toy car, but once placed in water (e.g., in a bathtub or pool), it transforms into a boat and floats. The idea is to make the transition between land and water seamless, creating a fun experience for kids who enjoy both car races and water play.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>m2kpuix85gs3q-AINL-93-3</t>
+          <t>m2m1yhll5tmol-AINL-373-1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A car within a sphere - it can roll along on land but also on water it can be kept stable and float, with built-in propellers to help it glide along.</t>
+          <t>.AquaRacers Splash &amp; Speed. A transforming car that can change into a boat. When on land it is a fast racing car. When in the water buoyant wings unfold and it becomes a speedboat.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>m2kq1v3jpwy9d-HMNL-97-1</t>
+          <t>m2kydd2wjowhj-HMNL-249-1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A lightweight toy car made with buoyant material which can also be used as an amphibious car that can float on water inside a bathtub.</t>
+          <t>The is a remote controlled car toy that can transform into a boat, so it's wheels can flip inside and turn the bottom of the toy into a boat hull that can float in water. By the press of a button the car's wheels flip inside, and tucked inside is a motor that can allow the boat to move and steer using the remote control.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>m2kq1v3jpwy9d-HMNL-97-2</t>
+          <t>m2kp0v8lsrt92-AINL-77-1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A building block toy similar to Lego which can be built into different vehicles including a car and a boat.</t>
+          <t>cosmicbubble glider pod, a vehicle for a young child to sit in, defying the conventions between land and sea. The toy takes the shape of a glowing orb and mimics the feeling of floating in a bubble. On water, the toy is powered by microjects allowing the user to glide along the surface effortlessly. On land, the ball acts as a zorbing ball, allowing the child to roll around inside the bubble</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>m2kq1v3jpwy9d-HMNL-97-3</t>
+          <t>m2kurwjk7mq1h-HMNL-193-3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A transformers like toy which can be changed from a car to a boat. One orientation is a car, and the other a boat.</t>
+          <t>A DIY Car building KIT  As a kid I loved DIY Stuff. While the children can have fun while playing with the toy, they can also sharpen their mind while making the toy. It can be a complete set of a DIY Car/Boat with interchangeable parts, like the rear bumper can be switched for a propeller.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>m2kq77zeptfdk-AINL-101-1</t>
+          <t>m2ksjrj6s2pqd-AINL-149-2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TurboDuck TurboChase is an utterly wacky toy that combines car and boat elements with a dash of humour and innovation. Shaped like a gigantic rubber duck, this toy features disguised as webbed feet that spin for land travel. The body expands like a balloon allowing it to float effortlessly in water and releases a burst of bubbles from its rear end from a quacking exhaust muffler</t>
+          <t>Splash Sprint Hydrocar- Interactive, modular car and boat hybrid.  Kids snap together to choose features.  It comes with various accessories.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>m2kq77zeptfdk-AINL-101-2</t>
+          <t>m2ku94iyop9ey-AINL-181-3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Streamline Cruise orb is a revolutionary toy that is designed as a spherical orb with a semi-transparent outer shell resembling a futuristic capsule. Inside a car-like structure rotates freely. On land the orb rolls. In water the spherical design shifts as jet propulsion pumps guide it</t>
+          <t>Waverunner Explorer is a dune buggy with the body of a sail boat. It has big wheels for driving on the ground and a big sail for the water.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>m2kq77zeptfdk-AINL-101-3</t>
+          <t>m2kyoskr6dcwz-HMNL-257-2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dual Realm Voyager marries car and boat in one distinct design. THe model features a chassis that is half sleek car, half streamlined boat. The front end is a classic sports car, with wheels for land navigation. At the back is a boat tail crafted for buoyancy and water</t>
+          <t>A virtual reality game where you can selecr to be in either a car or a boat and choose different roads/tracks or rivers to be driving on or sailing in.  White water rapids or a waterfall where you go over the edge or  a race track where you race with your friends</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>m2kqe4wa07t8v-HMNL-105-1</t>
+          <t>m2m1yhll5tmol-AINL-373-3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hybrid Car &amp; Boat: This is an hybrid toy machine of a car that can be transformed into a boat. This can typically be designed to be used in a pool.</t>
+          <t>This idea features an intuitive magnetic mechanism for easy mode transition. As a car it has light up rims. Then tires snap into hull pods and it becomes a fast boat. It uses solar power so is eco friendly.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>m2kqe4wa07t8v-HMNL-105-2</t>
+          <t>m2kwcueqll85n-AINL-221-4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Car &amp; Boat Lego: This is a block of lego that can only be used to build cars and boats. It sets targets for the kid to either create a boat of a car.</t>
+          <t>the car will have two colors as well, black and white, the interior will be black and the exterior will be white</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>m2kqe4wa07t8v-HMNL-105-3</t>
+          <t>m2m2hcth2ze2x-HMNL-385-2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Speed boat and Car Racing: This is a simulation game that is able to simulate a race between cars and boats, the child sets the race track and is able to carry out races between cars and speed boats.</t>
+          <t>My second idea is for a larger vehicle with wheelsthat the child can sit in and propel with their feet (it would have no floor, so the child's feet could push the vehicle along. It would be steered using a steering wheel. It would again be capable of floating, though it would need to be VERY stable! When in the water, the child could either propel it by kicking their feet, or better still, there would be hand cranked rotary paddles (like on a paddle-steamer) each side that could function both to propel the boat and to steer it. Another version might also use hand-cranking to propel and steer the vehicle on land.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>m2kqp7fjodp83-AINL-109-1</t>
+          <t>m2rlegtw8or2a-HMNL-521-3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Place a boat and a car side side by side to create the ultimate fortress. These two vessles can be turned into a great barrior for protection from enenmies!</t>
+          <t>I would make a toy ferry boat that is designed to store various toy cars. This could be used to transport cars across water.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>m2kqp7fjodp83-AINL-109-2</t>
+          <t>m2q92a1yay1st-AINL-493-3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A race between land and sea. A friendly competition where kids could see which transportation method can make it to the finish line first!</t>
+          <t>a small car shoe and a small boat shoe. versatility. for going thru puddles on the school run. if it’s dry, then the car will help your child glide through the school gates … if it’s nasty weather then the boat will help your offspring avoid messing up at least one of their lovely shiny shoes! (Good balance required at all times. Not very reliable in icy conditions.)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>m2kqp7fjodp83-AINL-109-3</t>
+          <t>m2km9n1tcpq18-AINL-13-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Combine these items to make a transformer robot! Dismantle pieces of the car and boat, then reformat them strategically to create a cool robot.</t>
+          <t>BathCruiser Turbo. This toy combines the excitement of a speedy car with the fun of a boat specially created for bath time. It floats effortlessly in the water whilst having robust wheels to enable it to roll around the edges of the bath. Vibrant colours and waterproof decals capture kids imaginations.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>m2kqv3ruqyoqn-HMNL-113-1</t>
+          <t>m2ktz1cy721fa-HMNL-177-1_duplicate</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>First idea is that you have a pram that can be converted into a car one that is for small children so that the idea is that when the child wants to can move around in the car, and then when gets tired can then be converted back to the pram. The boat element is to have the dials and steering wheel so that they can imagine that it can transform into a boat, but this cannot actually happen for safety reasons. However the pram is able to float.</t>
+          <t>A car that turns into a boat. Based on the real life car that becomes submersive the moment it touches the water, I feel like this could help transition kids from playtime in the evening to bathtime quite easily. With wheels that disappear up into the car and a buoyant float that activates when the water touches a sensor beneath, this could show innovation through technology with perhaps a noise indicating the switch between car and boat to keep their attention. This could also have characters that can sit in the boat, and depending on the difference between boat and car, come with different catchphrases when they sit in the sensors of the car-seats, so they become active when placed in the seats and it's almost an interactive experience.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>m2kqv3ruqyoqn-HMNL-113-2</t>
+          <t>m2kpoh5olsoga-HMNL-89-2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2nd Idea there are two factions, the crimsons cars and the boisterous boats, its a toy design based upon characters in vehcicles, and they are constantly racing against each other in tracks which have been designed to accomodate both set of vehiclee. Think scaleletrixs but with a water element. In addition there is a more expensive advanced version where by you can make your own track around your house by setting up various cameras in your home.</t>
+          <t>A bath toy which turns from a car into a boat design when it comes into contact with water, giving kids a fun and exciting toy that makes bath time special, and limiting clutter and mess by combining two great kinds of toy into one item.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>m2kqv3ruqyoqn-HMNL-113-3</t>
+          <t>m2kmrlphygt7l-AINL-29-3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A concept of the Micro machine, you have a big aircraft carrier which unpacks in to a big naval base with roads and various interactive elements such as defeces and blowing bridges a world within a boat</t>
+          <t>The AquaDrive Convertible: A floating toy car with pedal-powered movement, a steering wheel for navigation, and a detachable roof doubling as a kayak paddle, offering dual adventures in  the pool.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>m2kr7wqqysdpr-HMNL-121-1</t>
+          <t>m2m2zrv6ipd7f-HMNL-393-1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pool Racing Car is one of the design toy a child can play with combing car and boat. Kids will love playing with toys like this at home.</t>
+          <t>car shaped like a boat, with wheels that can be tucked out of the way underneath the body of the vehicle.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>m2kr7wqqysdpr-HMNL-121-2</t>
+          <t>m2ky7v1pqdsj2-AINL-245-2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Spraying car is also an idea of the design toys a child can play with combing both car and boat. This is a simple idea toy and it can boost production.</t>
+          <t>A remote controlled vehicle so on land its car but you can drive it into the water and as soon as its loses the wheels on the ground it will automcatically transform more into a boat with a motor that will propel the boat</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>m2kr7wqqysdpr-HMNL-121-3</t>
+          <t>m2m5r0ph3lbut-AINL-453-2_duplicate</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Water car is another idea of the design toys a child can play with combining car and boat. Kids will love to play with this design and will improve production.</t>
+          <t>Galactic voyager amphibious explorer is futuristic for children aged 7 to 10. It combines space exploration with earthbound versatility. In car mode, its retractable landing ear doubles as high tech tires and transforming into boat mode, it features a water cannon.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>m2krgvphzcdte-AINL-125-1</t>
+          <t>m2kt64ghshou1-AINL-165-1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Together with AI we want to create a remote controlled named AquaCruise. The design will be a hybrid to car.</t>
+          <t>The Seasprint Explorer is a toy that represents a synergy between terrestrial and aquatic adventure in one toy. It is shaped like a futuristic creature, with a body that looks like an animal from Mars, but moves like both a car and boat. It has flexible appendages that retract  and transform into wheels for land and propellers for water. It has intuitive motion sensors so kids can give commands for movements using hand gestures. The toy can also project holographic environments to facilitate imaginary play on raceways or waterways.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>m2krgvphzcdte-AINL-125-2</t>
+          <t>m2kvhaj0c21zw-AINL-205-3_duplicate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>We are developed a toy car with sleek, aerodynamic shape with a vibrant color scheme featuring neon accents, appealing to children's sense of adventure.</t>
+          <t>Introducing the Voyager Duo, a versatile toy for children aged 5-11 that combines car and boat dynamics. This amphibious vehicle features transformative components for seamless land to water play. Kids can navigate diverse terrains and watch as it automatically turns into a boat upon water contact. The playset includes a dual purpose mat with roads and waterways, encouraging creative route design. Enhance play with a companion app that brings stories to life through interactive missions. The Voyager Duo offers and engaging, educational experience, merging engineering with imaginative exploration for endless adventures.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>m2krgvphzcdte-AINL-125-3</t>
+          <t>m2l1m6mrcga4t-HMNL-329-3_duplicate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The toy car comes with a controller with intuitive control, this will offer easy maneuverability featuring direction joysticks and a mode switch button for land and water.</t>
+          <t>My third toy which is a twist on a pirates game. You would need to loot the cars and boats . On each vehicle there are hidden chets and the children would need to deconstruct the cars and break them apart, however they would be complex and could not be broken with force rather through intelligence such as memorising codes to input to unlock locks and solving puzzles.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>m2krre0v7esf8-HMNL-129-1</t>
+          <t>m2kwx25q5bdmk-AINL-229-3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A toy car that that can go both in the water and on land like a jetski with wheels on it.</t>
+          <t>HydroDrive Adventure Set  The set would feature modular parts that lets kids build either a car or boat using their own creative imagination thereby promoting creativity and problem-solving abilities while having fun. The set would include sturdy wheels, attachable pontoons and a compact detachable sail for water adventures. The set would also come with a challenge cards that encourages different constructions and configurations for submarine cars, speedboat racer etc. It will also have glow-in-dark elements to make it exciting for children as they take it through different lighting scenarios.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>m2krre0v7esf8-HMNL-129-2</t>
+          <t>m2kqv3ruqyoqn-HMNL-113-1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A hovercraft that when it goes on land has wheels that then turn it into a giant car that can drive.</t>
+          <t>First idea is that you have a pram that can be converted into a car one that is for small children so that the idea is that when the child wants to can move around in the car, and then when gets tired can then be converted back to the pram. The boat element is to have the dials and steering wheel so that they can imagine that it can transform into a boat, but this cannot actually happen for safety reasons. However the pram is able to float.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>m2krre0v7esf8-HMNL-129-3</t>
+          <t>m2kmyrigc36la-HMNL-33-1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A dune buggy that also has an outboard motor on it so that when you go into the water it turns it into a very fast boat that can hold up to two people.</t>
+          <t>I will design a toy car that can work in floor and also in water, to have the shape of a boat. It can be played with in both land and water. I will call it Caraqua.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>m2krxie1v5a0c-AINL-133-1</t>
+          <t>m2ky7v1pqdsj2-AINL-245-3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AeroSplash Racer: Dynamic hybrid vehicle seamlessly transitions between land and water with retractable aquatic fins and amphibious wheels, fueled by kid-powered propulsion.</t>
+          <t>A remote control hover vehical that can travel on land and on water without the child having to change it</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>m2krxie1v5a0c-AINL-133-2</t>
+          <t>m2m2sh27q44qt-AINL-389-1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HydroWheels Adventure Cruiser: A dual-purpose vehicle designed with inflatable buoyancy, transforming from a sleek car to a nimble boat, powered through steering adjustments.</t>
+          <t>Transforming Amphibious Race Car: A sleek car that transforms into a boat with a quick snap. Equipped with retractable wings and a fin for stability, it features water-splashing action. The built-in mini engine runs smoothly on land and water. Lights and sound effects can be triggered by pressing the rooftop button, ensuring an exhilarating adventure on mixed terrains. This action-packed toy invites young explorers to navigate high-speed races on land and launch into splash-filled chases on water, ensuring a dynamic playtime full of adrenaline!</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>m2krxie1v5a0c-AINL-133-3</t>
+          <t>m2knudkb7fk0d-HMNL-49-1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WaveRunner Buggy: Primarily a car but equipped with water-resistant features, allowing it to splash through shallow pools and navigate the road with ease.</t>
+          <t>a car and a boat could be combined to make a fun, amphibious vehicle, a sail could be added for extra speed and stability.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>m2ks1569zvrig-HMNL-137-1</t>
+          <t>m2m2fg522rw8f-AINL-381-3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>I would consider designing a car that floats on water, such that a child can play with it on the ground and in the swimming pool.</t>
+          <t>The Stealth Navigator. A car boat combo toy engineered for the ultimate outdoor adventure. With its sleek black finish and adapative colour technology that allows it to blend in with its surroundings. It is able to go anywhere and spy on people, with built in mics and speakers, you can use it to record the conversations of others with out them knowing. It can also be used as a spy in nature, allowing it to get close to animals and through its on board cameras, allow the user to make their own nature documentary.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>m2ks1569zvrig-HMNL-137-2</t>
+          <t>m2kzo3gry4sg7-HMNL-281-2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I would consider designing a car that is shaped like a boat, such that it stays afloat when in water and uses wheels while on land. I would design a propeller engine at the rear base of the car.</t>
+          <t>Hydrocar- a pedal car suited for 2 children, when driven into water floats, becoming a boat. It is a fun toy that helps childern stay active.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>m2ks1569zvrig-HMNL-137-3</t>
+          <t>m2kndjq851wkj-HMNL-41-2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I would design a car with movable parts, the wheels move inwards and the space left is covered so that the car can float. Also, the engine should work both on land and in water.</t>
+          <t>The latest innovation in toys, presenting the Mighty Mover! This rugged amphibian vehicle, presented in camouflage colours, has fully moveable wheels and will float in water. It shoots small foam darts to fully emphasise its tough credentials - nobody will want to mess with this floating tank!</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>m2ks7hdrix2yo-AINL-141-1</t>
+          <t>m2m5r0ph3lbut-AINL-453-3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>An Aqua Cruiser, a hybrid toy that combines cars and boats into one. It's shaped like a sports car, features retractable wheels and buoyant, watertight bodywork that transforms into a high-speed motorboat. Children can steer the Aqua Cruiser on land with its smooth wheels and remote control, then engage the water mode at the touch of a button.</t>
+          <t>The EcoWave Hybrid Cruiser is a sustainable car-boat. Eco friendly, crafted from biodegradable and plant based plastics, it is brightly coloured. Using friction,in car form it promotes battery waste awareness and uses a hand crank to power boat mode. A fun but educational booklet accompanies the toy to encourage environmental stewardship.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>m2ks7hdrix2yo-AINL-141-2</t>
+          <t>m2ktlu2z3ixfz-HMNL-169-3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Wave Racer Turbo, a two-in-one adventure toy merging the excitement of racing cars and speedboats. It features a convertible chassis that cleverly morphs from a sleek race car into a high-performance speedboat. The toy has quick-release mechanisms: the wheels fold up into slick pontoons for aquatic fun. In car mode, it zooms over diverse terrain with pull-back motor, while in boat mode, it glides across the water propelled by a wind-up jet propeller.</t>
+          <t>We can create a convertible emergency support vehicle which will used to support the emergency situation in both ways. It will be a very good toy which will create a very innovative though to the children to learn new things and deeply understood it.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>m2ks7hdrix2yo-AINL-141-3</t>
+          <t>m2q9a5waka67u-AINL-501-1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The Hydro Cruiser 4x4, a toy that combines the land-roving capabilities of a rugged SUV with the aquatic agility of a boat. The Hydro Cruiser boasts an engine-powered mechanism allowing it to navigate both terrains. Its four durable wheels retract upward when it transitions into water mode, activating the buoyant hull and concealed propellers. This transformation is facilitated by a dual-mode remote control that toggles between road and water functions.</t>
+          <t>AquaRacer Turbo Splash, a deluxe amphibious toy vehicle that seamlessly transitions between land and water play crafted with high-quality durable materials.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>m2ksjrj6s2pqd-AINL-149-1</t>
+          <t>m2m5rz0df8x4h-HMNL-457-2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AquaRacerTranforable Vehicle- transforms from car to boat.  Offers exciting dual terrain experience.  Kids steer with a controller that switches between land and water modes.</t>
+          <t>The bumper of the car will house a flexible hull that is able to stretch down the sides of the car thus turning it into a boat.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>m2ksjrj6s2pqd-AINL-149-2</t>
+          <t>m2kq77zeptfdk-AINL-101-1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Splash Sprint Hydrocar- Interactive, modular car and boat hybrid.  Kids snap together to choose features.  It comes with various accessories.</t>
+          <t>TurboDuck TurboChase is an utterly wacky toy that combines car and boat elements with a dash of humour and innovation. Shaped like a gigantic rubber duck, this toy features disguised as webbed feet that spin for land travel. The body expands like a balloon allowing it to float effortlessly in water and releases a burst of bubbles from its rear end from a quacking exhaust muffler</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>m2ksjrj6s2pqd-AINL-149-3</t>
+          <t>m2kw4g5lrbgp1-HMNL-217-3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WhizWave TurboCraft- car and boat hybrid that uses a magnetic snap technology to toggle between land and water terrains.  Has both rugged wheels and a buoyant hull.  Includes mini passengers.</t>
+          <t>Yacht outing would be the name for the toy design. The toy can be made foldable in other to reveal either the boat or the car.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>m2kspv5om6wje-HMNL-153-1</t>
+          <t>m2l1m6mrcga4t-HMNL-329-1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Duckmobile! A toy car that can be driven on land and in the water. perfectly sized for two children the Duckmobile seamlessly travels over grass, gravel, mud straight into lakes and other bodies of water</t>
+          <t>The first toy is a buld you own kit which would include novel items and these items would need to be used to create something which can function as a vehicle. The aim of the game would be to either resemble a vehicle i.e have 4 tires or function as a car i.e drive and move. However the items provided in the box will be random and in some cases everyday items like cardboard, shoelaces etc and more points will be given for any other unique items used, the children could use their own items making this game very replayable rather than a one off. There would be a checklist such as coolest design, most functioning and the person with the highest score would win. Now the twist would be that once the car is made, you would have to sumberge it in water so the children would have to design a vehicle that not only moves but can float and this would really be creative and make the children think out of the box.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>m2kspv5om6wje-HMNL-153-2</t>
+          <t>m2kl3jo2fxe83-AINL-5-2_duplicate</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The Transformer: like the transforming toys of yesteryear this  completely functional toy motor car seats one person and converts into a boat at the flick of a switch! Ideal for holidays and trips to the lake, the Transformer gives you the best of both worlds</t>
+          <t>Sea Eco Fairer Kit - This toy is designed to teach children about environmentally friendly energy sources through play. Also combines a science and technology element too. This car is amphibious and can sail on water and drive on land. It is powered by solar energy through solar panels which the children can attach to the car themselves. The toy is also fully made from recycled materials</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>m2kspv5om6wje-HMNL-153-3</t>
+          <t>m2rligqcb9g87-AINL-525-3</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The AquaCar: fun for all the family! this car/boat hybrid can be controlled directly from your smart phone. The AquaCar converts from car to boat at the touch of a button for hours of fun!</t>
+          <t>The speedster is a toy that converts from a dragster/formula 1 car into a speedboad at the twist of a dial.  The dial retracts the wheels and deploys side tanks to give extra buoyancy.  the wheels are rubber faced to give extra traction on the road surfaces and the sreamlined shape of a dragster/formula 1 car easily transforms into the streamlined shape of a racing speedboat.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>m2kstaz2blxwu-AINL-157-1</t>
+          <t>m2rligqcb9g87-AINL-525-2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Reinforced buoyancy: Boats should be made of light material. The boat should be made with corrosive free material. Stable design</t>
+          <t>the Amphicar is a cross between a boat and a car and is made of plastic and has a built in buoyancy.  There is also a sealed battery compartment and as well as an on/off switch there is also a switch that allows transition for the motor from driving the road wheels to driving a propeller.  The toy comes with accessories that allow the user to customise the toy.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>m2kstaz2blxwu-AINL-157-2</t>
+          <t>m2kr7wqqysdpr-HMNL-121-1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Aerodynamic body to reduce friction. Fuel effeciency The interior should have infotainment and security/safety features Customized paint for personalized touch.</t>
+          <t>Pool Racing Car is one of the design toy a child can play with combing car and boat. Kids will love playing with toys like this at home.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>m2kstaz2blxwu-AINL-157-3</t>
+          <t>m2rnv1hgviv0s-HMNL-529-1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Each hull should be made of thickened, marine-grade aluminiun or durable composite material.  Flat top deck reinforced with slip resistant surface, with retractable car restraints</t>
+          <t>Simple amphibious vehicle that can drive on roads and also float in water - ideal bath toy that can also work in regular play out of water</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>m2kt64ghshou1-AINL-165-1</t>
+          <t>m2m53l3x1rdph-HMNL-441-2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The Seasprint Explorer is a toy that represents a synergy between terrestrial and aquatic adventure in one toy. It is shaped like a futuristic creature, with a body that looks like an animal from Mars, but moves like both a car and boat. It has flexible appendages that retract  and transform into wheels for land and propellers for water. It has intuitive motion sensors so kids can give commands for movements using hand gestures. The toy can also project holographic environments to facilitate imaginary play on raceways or waterways.</t>
+          <t>works on both land and water. good for those with water phobia or poor swimmers. also works perfectly under water</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>m2kt64ghshou1-AINL-165-2</t>
+          <t>m2kqv3ruqyoqn-HMNL-113-3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>This toy is a car/boat for your guinea pig or hamster! It has a ball on a gyroscope that holds the critter and allows it to stay stable as the car/boat travels. It is also water tight just in case, but must only be used under adult supervision.</t>
+          <t>A concept of the Micro machine, you have a big aircraft carrier which unpacks in to a big naval base with roads and various interactive elements such as defeces and blowing bridges a world within a boat</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>m2kt64ghshou1-AINL-165-3</t>
+          <t>m2krxie1v5a0c-AINL-133-3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Brightly colored, oversized rubber duckie shape that conceals the dual purpose functions of a car-boat. On land, springs cause it to bounce as it moves in a very funny fashion. The wings transform into flippers that move the boat through the water, splashing and quacking along the way.</t>
+          <t>WaveRunner Buggy: Primarily a car but equipped with water-resistant features, allowing it to splash through shallow pools and navigate the road with ease.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>m2ktlu2z3ixfz-HMNL-169-1</t>
+          <t>m2m23lxpm3ev9-HMNL-377-3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>We can create a Boataxy which will be able to run in the road as well as in the water. We combined the two concept and put it in one form and make a combined vehicle.</t>
+          <t>A SMALL REMOTE CONTROL CAR TOY THAT HAS A BUILT IN SET OF OARS THAT EXTEND AT THE PRESS OF A BUTTON ALLOWING THE CAR TO PROPEL ITSELF ON THE WATER. THE SAME ELECTRIC MOTOR THAT POWERS THE WHEEL SWITCHES TO POWERING THE ROWING OF THE OARS.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>m2ktlu2z3ixfz-HMNL-169-2</t>
+          <t>m2l1yo7z059so-AINL-333-1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>We can create a floating car-boat which will be a convertible vehicle and also it will be a convertible toy that can be a more attachment. it will be a very informative toy which will help the children to learn about convertible things.</t>
+          <t>A sleek compact car with integrated solar panels on the roof to charge an electric battery for a sustainable and eco friendly driving experience</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>m2ktlu2z3ixfz-HMNL-169-3</t>
+          <t>m2m0tpi4tmzcd-HMNL-345-1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>We can create a convertible emergency support vehicle which will used to support the emergency situation in both ways. It will be a very good toy which will create a very innovative though to the children to learn new things and deeply understood it.</t>
+          <t>A boat car that can go from land to sea or vice versa.  A vehicle that would allow the child to add characters inside in seats.  The ability for the toy to be water tight so it will actually float when put on the water.  Durable material for this age group as kids like to drop things.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>m2ktotg7kkykf-AINL-173-1</t>
+          <t>m2m7pi4hkjr5x-AINL-477-1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A small handheld toy racing car with a boat mode where pontoon pop out to allow the car to float in the water.</t>
+          <t>Mariners drive - the boat that turns into a car when it reaches land.  Can be purchased as a two or four seater for all of your dolls.  The perfect beach toy, will perform as a boat in the sea and become a car on the sand.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>m2ktotg7kkykf-AINL-173-2</t>
+          <t>m2kqp7fjodp83-AINL-109-1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A maneuverable race car with a detachable boat trailer that children can enjoy towing until it hits water. After it hits water the wheels function like paddles.</t>
+          <t>Place a boat and a car side side by side to create the ultimate fortress. These two vessles can be turned into a great barrior for protection from enenmies!</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>m2ktotg7kkykf-AINL-173-3</t>
+          <t>m2rlegtw8or2a-HMNL-521-1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A boat toy that launches a car forward onto land the moment it bumps into a dock. A spring mechanism is used to provide momentum for the car the moment it hits a dock.</t>
+          <t>I would make a hover-car that would have wheels that could retract and then float on water. This could then be remote-controlled.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>m2ktz1cy721fa-HMNL-177-1</t>
+          <t>m2m4xtd7wizdm-AINL-437-3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A car that turns into a boat. Based on the real life car that becomes submersive the moment it touches the water, I feel like this could help transition kids from playtime in the evening to bathtime quite easily. With wheels that disappear up into the car and a buoyant float that activates when the water touches a sensor beneath, this could show innovation through technology with perhaps a noise indicating the switch between car and boat to keep their attention. This could also have characters that can sit in the boat, and depending on the difference between boat and car, come with different catchphrases when they sit in the sensors of the car-seats, so they become active when placed in the seats and it's almost an interactive experience.</t>
+          <t>Introducing the TurboSplash Duo, a captivating toy that seamlessly integrates car and boat functionalities into one. This design features an elegant convertible chassis with retractable aquatic elements. As a robust car, it sports a full-suspension system and colourful racing stripes for land escapades. Transitioning to water mode is a breeze with a pull-and-lock mechanism that extends floatable pontoons and sleek propellers. The turboSplash includes an automatic lock function which turns on when water mode is activated, and allows the doors of the vehicle to lock, ensuring that any dolls or items in the vehicle do not get wet when placed in the water. The TurboSplash Duo uses a rechargeable power system, allowing for extended journeys on land and water. Equipped with glow-in-the-dark components, it offers a sensory experience as children navigate both land and aquatic terrains, sparking limitless creativity and play.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>m2ktz1cy721fa-HMNL-177-2</t>
+          <t>m2kndjq851wkj-HMNL-41-1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A boat that transports cars. Like the boats that carry storage and materials on the water, except it's only cars and these can be slotted in to storage boxes that are openable on the boat. This could come with little members of staff (toy people) that are placeable next to the storage boxes, and possibly have a crane on the top of each storage box - maybe one crane that moves around the boat to replace the lids on top of them and make it a realistic experience of working on board a storage ship. It's educational and fun, because kids love using construction creatively!</t>
+          <t>Presenting the AquaRacer : this cool toy combines the sleek lines of a speedboat with that of a sports car. The wheels fold away when not in use, revealing fins on the reverse of the wheel so the boat can steer. Fully waterproof and floats in the bath, so your child can enjoy the AquaRacer at any time.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>m2ktz1cy721fa-HMNL-177-3</t>
+          <t>m2qhkkkebpms4-AINL-517-1_duplicate</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A car that attaches a trailer to transport a boat. Like going fishing with grandpa - which makes this toy memorable for most kids, they will have fond memories of their life attached to this toy giving them a reason to play with it. There is also the possibility of this boat being a jet-ski or a kayak, and being placeable on top of the car, and being able to switch which types of boat are trailed by the type of trailer the car is able to handle - making it educational and realistic for them to work out which boat belongs to which trailer and the uses of each. This is inclusive of family members who have experience with boats/cars/mechanics and can help engage their learning/imagination wondering which holiday to take their toy on! These boats can also be thematic - a lot of cartoons have different boats/water vehicles that can be placed here and open up a world of fun for the kids to experience.</t>
+          <t>The Aquaspeedo This is a transforming boat-car with retractable wheels and a propeller, allowing kids to seamlessly transition from water to land thereby building imaginative storytelling.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>m2ku94iyop9ey-AINL-181-1</t>
+          <t>m2q9tgdi3y3u4-HMNL-513-1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SplashCruiser 4 x 4 is a toy that is a rugged off-road vehicle with the ability to drive in the water</t>
+          <t>My first idea would be to make a toy car for a child but incorporate floats into the design whereby if the child presses a button the toy car transforms into a boat that would be suitable for a shallow pond. The design would be every little boys dream and possibly take on the initial shape of a cool sports car and transform into a speedboat.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>m2ku94iyop9ey-AINL-181-2</t>
+          <t>m2kwcueqll85n-AINL-221-2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AquaTrail Blazer is a fun toy that has the body of a car and has retractable pontoon arms that extend out so that it can float in water.</t>
+          <t>Let us also create a toy boat that will have an oval shape and also a remote to control it</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>m2ku94iyop9ey-AINL-181-3</t>
+          <t>m2kkqo5zi6gmq-HMNL-1-2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Waverunner Explorer is a dune buggy with the body of a sail boat. It has big wheels for driving on the ground and a big sail for the water.</t>
+          <t>A toy that can be flipped vertically, with a car on one side and a boat on the other side. The two parts can be connected and disconnected with a plug-type mechanism.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>m2kujxnx3bdrf-AINL-189-1</t>
+          <t>m2kr7wqqysdpr-HMNL-121-2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Introducing 'Turbo Tides', the ultimate land and sea adventure toy for kids aged 5-11! This dynamic transformer car flips into a buoyant boat, sparking endless playtime possibilities. On land, it zooms around as 'Racer Rex', its fast and frenetic personality, boasting wacky phrases like Let's zoom and vroom!. With a quick switch, it becomes 'Bobby Buoyant', the boat who gently encourages with a slow, happy tone, saying things like Let's drift and dream!'. Both personalities feature interaction through voice recognition, responding to the child's commands and questions, immersing them in thrilling, imaginative journeys across diverse terrains.</t>
+          <t>Spraying car is also an idea of the design toys a child can play with combing both car and boat. This is a simple idea toy and it can boost production.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>m2kujxnx3bdrf-AINL-189-2</t>
+          <t>ATTENTION_CHECK_1_NL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Introducing the 'Auto Aqua Adventurer', a magical transformation outfit perfect for an adventurous child! This fancy dress transforms from a sleek car to a whimsical boat with just a button press. As a car, the costume casts vibrant projections of a whimsical cartoon world, where roads twist and turn with famous characters like talking animals and fantastical racers, each in unique, imaginative vehicles. Switching to boat mode, it immerses the room in an enchanting underwater realm, with beloved sea characters such as friendly dolphins, mermaids and treasure-hunting turtles. Both transformations ensure hours of imaginative exploration and play.</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>m2kujxnx3bdrf-AINL-189-3</t>
+          <t>m2kr7wqqysdpr-HMNL-121-3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Introducing the Holiday Harmonizer toy, a dream come true for both energetic children and their rest-seeking parents. Shaped as a hybrid of a car and boat, this ride-on toy seamlessly navigates both land and water. Equipped with safety features, it includes a satellite dish for real-time monitoring by a dedicated team of nannies. Parents can relax, knowing nannies are ready to spring into action if needed, flying over and parachuting in with concord speed. This toy engages children with interactive steering and adventure mode sound effects. ensuring thrilling rides to playgrounds or beachside, all while being securely overseen.</t>
+          <t>Water car is another idea of the design toys a child can play with combining car and boat. Kids will love to play with this design and will improve production.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>m2kurwjk7mq1h-HMNL-193-1</t>
+          <t>m2q8wbm94q90b-AINL-485-2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Car-Boat Racing Track.  It can be a set that includes a race track where children can race their car-boats across both land and water. The track is designed with section of water and dry land, creating a fun and challenging race. The car-boats are powered by pushing or pulling, making the races interactive and competitive. It is perfect for group play, allowing kids to challenge their friends in exciting races on both surfaces. If possible add AR glasses to the KIT and whenever children use those glasses to play they see things like lap times and lap markers on the track.</t>
+          <t>an explorative toy which can be used on land and water, with features that change depending on the terrain. it has an integrated scanning feature which scans the land or water it is being played on and provides education facts for the child, such as which animals are likely to be in the water or on the terrain.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>m2kurwjk7mq1h-HMNL-193-2</t>
+          <t>m2knudkb7fk0d-HMNL-49-3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A dual mode adventure vehicle  I can be a remote-controlled kinda toy that is amphibious. It can be like the cars in GTA Vice City after using the cheat Seaways that can drive in land but whenever touches the water the wheels go sideways and have floating materials on the rims so that it can float. Then when the wheels move, they propel the water.</t>
+          <t>Combine the car and boat to make a pirate themed go-cart, or boat cart. If a sail was added this could be a pretty fast go-cart...very cool.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>m2kurwjk7mq1h-HMNL-193-3</t>
+          <t>m2l1gekcw4n5t-AINL-325-2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A DIY Car building KIT  As a kid I loved DIY Stuff. While the children can have fun while playing with the toy, they can also sharpen their mind while making the toy. It can be a complete set of a DIY Car/Boat with interchangeable parts, like the rear bumper can be switched for a propeller.</t>
+          <t>Submarine Speedster has a shape of a futuristic car that changes in a submarine-like boat with a twist of a knob</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>m2kvhaj0c21zw-AINL-205-1</t>
+          <t>m2kq77zeptfdk-AINL-101-2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Introducing the HydroTrack Explorer, the ultimate hybrid adventure toy for children aged 5-11, blending the best of land and sea at play. This dynamic vehicle seamlessly transitions from car to boar mid-flight, launching off a custom track into a sizable water basin for splash-filled races. Enhance the experience with AR goggles, overlaying a virtual world onto the physical track, complete with challenges and power-ups. Intuitive, gesture-based wristband controllers let children navigate the Explorer with natural movements, fostering coordination and creativity. The HydroTrack Explorer transforms traditional play into captivating multi-sensory storytelling, setting a new standard for innovative toy experiences.</t>
+          <t>Streamline Cruise orb is a revolutionary toy that is designed as a spherical orb with a semi-transparent outer shell resembling a futuristic capsule. Inside a car-like structure rotates freely. On land the orb rolls. In water the spherical design shifts as jet propulsion pumps guide it</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>m2kvhaj0c21zw-AINL-205-2</t>
+          <t>m2kwx25q5bdmk-AINL-229-2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Introducing the Terraformer Squad, an innovative toy set for children aged 5-11, merging play with ecological awareness. This set features modular vehicles like the All-Terrain Rover and Eco-Droid, designed to transform and tackle diverse ecosystems. Through a connected app, kid project virtual environments where their squadplants seeds and cleans up pllutants, learning about nature's balance. Vehicles display educational facts about ecosystems, fostering teamwork as children swap parts to adapt to new challenges. The Terraformer Squad offers and engaging play experience that entertains while cultivating environmental stewardship and curiosity within young adventurers.</t>
+          <t>AquaTrack Transformer  The AquaTrack Transformer is a dual-function vehicle that shifts seamlessly from car mode to boat mode. Children can drive it across the playground and it can also transform into a boat with detachable pontoons and propellers for bathtub or pool play. The toy would come with remote control capabilities, allowing dynamic change between car and boat forms. It would have customizable stickers for children to personalize it, this helps them become creative and imaginative while at it.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>m2kvhaj0c21zw-AINL-205-3</t>
+          <t>m2kspv5om6wje-HMNL-153-3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Introducing the Voyager Duo, a versatile toy for children aged 5-11 that combines car and boat dynamics. This amphibious vehicle features transformative components for seamless land to water play. Kids can navigate diverse terrains and watch as it automatically turns into a boat upon water contact. The playset includes a dual purpose mat with roads and waterways, encouraging creative route design. Enhance play with a companion app that brings stories to life through interactive missions. The Voyager Duo offers and engaging, educational experience, merging engineering with imaginative exploration for endless adventures.</t>
+          <t>The AquaCar: fun for all the family! this car/boat hybrid can be controlled directly from your smart phone. The AquaCar converts from car to boat at the touch of a button for hours of fun!</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>m2kvpvsck1x1p-AINL-213-1</t>
+          <t>m2m1rq5101pds-HMNL-369-3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>introducing Ca-Yat 1.0, an innovative toy that has the features and design of a car but without a tire. this CaYat features a steering, gear , head-light for vision at night, enclosed rooftop, 3 seater at the back and 2 at the front. a dashboard for navigation and operation. it is controlled with remote. when place in water , it can be operated to move around by using the remote to control the direction.</t>
+          <t>A boat can be used as a trailer for toy cars, used to carry stuffed animals or dolls for one place to the other</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>m2kvpvsck1x1p-AINL-213-2</t>
+          <t>m2kxwokake7k9-HMNL-241-1_duplicate</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>an inflatable car like boat toy that children can use to play. it will be designed to look like a car when inflated but when placed in water, it floats. it will have an opening at the back with a cap where air can be blown in to inflate the car. the cap is closed immediately the air is blown in and the car like boat is inflated.</t>
+          <t>Please design an amphibious toy with no motor than can transverse between land and see. It would be cool if it was ridable by children as well</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>m2kvpvsck1x1p-AINL-213-3</t>
+          <t>m2kwcueqll85n-AINL-221-3_duplicate</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>introducing a Cayat 2.0.This features a car with tire and on the roof is a boat built on top. the down part will be a car and on the roof, a boat is built. this gives it an open view on top to look around and an enclose space at the down part as a car. it is controlled with a remote and a track line. this toy can be coupled and uncoupled. the boat can be detached from the roof and used separately to play in water. the remote will be wireless and can operate both car and boat when detached</t>
+          <t>the care must be made of two different colors, featuring, red and green, the interior will be red and the exterior will be green</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>m2kw4g5lrbgp1-HMNL-217-1</t>
+          <t>m2kqe4wa07t8v-HMNL-105-1_duplicate</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>The toy is sail and drive. The design would have a pivot attached to it in the middle with both the car placed on top and the boat placed at the bottom. The idea  is to reveal either a car when pushed up to and to reveal the boat when pushed down.</t>
+          <t>Hybrid Car &amp; Boat: This is an hybrid toy machine of a car that can be transformed into a boat. This can typically be designed to be used in a pool.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>m2kw4g5lrbgp1-HMNL-217-2</t>
+          <t>m2m4mukonj88m-AINL-429-2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cruise ride is the toy name. Both the car and the boat will be placed sideways with buttons which can be pushed to hide one face when placed flat.</t>
+          <t>The 'junior Hydro Adventure Kart' offers land and water adventures for kids, features include safe controls and an adjustable seat-belt</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>m2kw4g5lrbgp1-HMNL-217-3</t>
+          <t>m2kzihhys21m1-AINL-277-2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Yacht outing would be the name for the toy design. The toy can be made foldable in other to reveal either the boat or the car.</t>
+          <t>The AquaRacer, combination boat and car toy with LED lights so children can race cars under water and at night.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>m2kwcueqll85n-AINL-221-1</t>
+          <t>m2knoj3zpaab0-AINL-45-2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>let us make a toy car with a few factors. It must be in rectangular shape, and it must have 4 tires</t>
+          <t>hydro cruiser  the hydro cruiser has rectrable rudder and propellers for smooth water navigation. out side of the water it has sturdy rubber wheels for effortless use</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>m2kwcueqll85n-AINL-221-2</t>
+          <t>m2q8wbm94q90b-AINL-485-3_duplicate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Let us also create a toy boat that will have an oval shape and also a remote to control it</t>
+          <t>a modular system where children can build their own cityscapes which float on water for use in the bath or swimming pools. the kit features different vehicles which can be used in the water or on the cityscapes to recreate their own worlds.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>m2kwcueqll85n-AINL-221-3</t>
+          <t>m2m6indcqm4yr-AINL-469-3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>the care must be made of two different colors, featuring, red and green, the interior will be red and the exterior will be green</t>
+          <t>An underwater explorer vehicle. It starts out as a boat and once submerged, wheels can come out from the bottom where it can then roll on the ground underwater.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>m2kwcueqll85n-AINL-221-4</t>
+          <t>m2m6indcqm4yr-AINL-469-1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>the car will have two colors as well, black and white, the interior will be black and the exterior will be white</t>
+          <t>Aqua Racer Adventure Set - A transformable toy featuring a sports car that turns into a speed boat. Children will be able to change the tires into propellers. It will have small led lights and be able to produce car or boat engine sounds.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>m2kwp624e0mtv-HMNL-225-1</t>
+          <t>m2kyoskr6dcwz-HMNL-257-3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>The WaterMobile toy combines the look of a standard car with the buoyancy of a boat. The is achieved by having special flotation devices under the car and within the wheels themselves. Instead of the wheels being positioned like a standard car, they are instead rotated outward so that the wheels are laying flat against the water. The WaterCraft may be driven normally and manually converted to it's boat mode when needed.</t>
+          <t>A lifesize boat that children can actually go on and explore everywhere on the boat and dress up pretend to be characters on  a boat such as a captain or a sailor or a passenger</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>m2kwp624e0mtv-HMNL-225-2</t>
+          <t>m2m2sh27q44qt-AINL-389-2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The AutoSail toy combines the look of a traditional sail boat with the features of a car. The AutoSail has wheels for play outside the water with its sailed tucked into a compartment. And when the water is reached, the functional sails can be assembled for use in practically any body of water.</t>
+          <t>Modular Adventure Kit: A DIY toy kit with interchangeable parts to create a car, boat, or hybrid. Kids can customize wheels, sails, and motors, encouraging creativity and problem-solving skills. The toy's interactive companion app provides instructions and challenges to navigate obstacle-filled courses, merging physical play and digital interaction. With endless configurations and ever-changing challenges, this kit transforms any playroom into a thrilling engineering world where young inventors become the architects of their own ultimate adventure!</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>m2kwp624e0mtv-HMNL-225-3</t>
+          <t>m2m2zrv6ipd7f-HMNL-393-3</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The AquaCraft is a toy that looks mostly like a standard car, but has an on-land mode and a water mode. When on land, the toy operates as any standard RC car, and when in water mode, the car is able to be controlled like a boat. The AutoCraft has a waterproof engine that helps to propel the toy, and instead of standard rudders, each pairs of tires will help to steer the toy.</t>
+          <t>a large boat shaped like a passenger ferry that has the ability to carry cars and other vehicles in it's hold</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>m2kwx25q5bdmk-AINL-229-1</t>
+          <t>m2m0tpi4tmzcd-HMNL-345-2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Splash Rover Racer  This vehicle boast of all terrain capabilities, moving seamlessly from driveway to swimming pool. It is rugged, waterproof design ensures durability that allows it transform the car into a stable water racer. Kids can steer their way through land using a joystick the use a built in wind vane to navigate when on water. It will be equipped with exhilarating features such as built in splash cannons for friendly water battles. it engages imagination and action packed play as kids race their vehicles in exciting adventure scenarios.</t>
+          <t>A motorize speed boat that has the ability to shift like a car with a remote control.  Must be a durable material and with a tracker so that the remote can find it if you lose it.  As kids always lose things.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>m2kwx25q5bdmk-AINL-229-2</t>
+          <t>m2q9tgdi3y3u4-HMNL-513-2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AquaTrack Transformer  The AquaTrack Transformer is a dual-function vehicle that shifts seamlessly from car mode to boat mode. Children can drive it across the playground and it can also transform into a boat with detachable pontoons and propellers for bathtub or pool play. The toy would come with remote control capabilities, allowing dynamic change between car and boat forms. It would have customizable stickers for children to personalize it, this helps them become creative and imaginative while at it.</t>
+          <t>My second idea would be more in the form of a kit as an educational toy for both boys and girls, but also for adults and parents to have an input into also. It would take on the form of an old kit car type vehicle but for children to make and build themselves with adult help and supervison; creating budding engineers for the future. There would be an emphasis on both engineering and marine design in order to build something that wouod be fit for a road or path and something that would also be capable of driving directly from a road into the water and not leaking. Perhaps the idea could build on renewable technologies such as solar and battery power.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>m2kwx25q5bdmk-AINL-229-3</t>
+          <t>m2kmb8c916li7-AINL-21-2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>HydroDrive Adventure Set  The set would feature modular parts that lets kids build either a car or boat using their own creative imagination thereby promoting creativity and problem-solving abilities while having fun. The set would include sturdy wheels, attachable pontoons and a compact detachable sail for water adventures. The set would also come with a challenge cards that encourages different constructions and configurations for submarine cars, speedboat racer etc. It will also have glow-in-dark elements to make it exciting for children as they take it through different lighting scenarios.</t>
+          <t>A do it yourself building kit for kids. It encourages creativity for kids where they can build their own boat and car.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>m2kxcckozq0y7-HMNL-233-1</t>
+          <t>m2kspv5om6wje-HMNL-153-1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>You could combine a car and a boat and make a remote control boat and car toy that can both float around in the pool and drive around the yard</t>
+          <t>The Duckmobile! A toy car that can be driven on land and in the water. perfectly sized for two children the Duckmobile seamlessly travels over grass, gravel, mud straight into lakes and other bodies of water</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>m2kxcckozq0y7-HMNL-233-2</t>
+          <t>m2m0wjlp3tsnq-AINL-349-2_duplicate</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>You could make a building block style toy where the child could put a toy together and the toy could be a combo car and boat, such as like the German Volkswagen Schwimmwagen, which existed in real life, and it was a car that could drive through water also.</t>
+          <t>turbotide, is an amphibious vehicle with seamless transitions from speeding across land to cutting through water, ensuring nonstop excitement and fun for kids</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>m2kxcckozq0y7-HMNL-233-3</t>
+          <t>m2m386s728hlb-AINL-397-3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>You could have a drawing set that is designed to allow the child to color inside the lines and the coloring book could have a picture of a car and a boat that is combined together, like the Volkswagen Schwimmwagen</t>
+          <t>The splash drift duo - A 2 in 1 toy targeted to kids age 5 to 11 combining cars and boats. This exciting duo can be a compact racing car or a sturdy durable boat. With a twist mechanism. Simply twist to transform in to the chosen toy. With a set of detachable characters to encourage role play and imagination. Whilst also promoting STEM learning. As children can explore the difference concepts such as 'motion and buoyancy' in boat mode and explore the 'terrains' in car mode. Educational fun!</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>m2kxwokake7k9-HMNL-241-1</t>
+          <t>m2l1yo7z059so-AINL-333-3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Please design an amphibious toy with no motor than can transverse between land and see. It would be cool if it was ridable by children as well</t>
+          <t>A luxurious yacht  equipped with AI technology, proving automated naviagtion, smart energy management, and customizable interior settings, smart energy management</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>m2kxwokake7k9-HMNL-241-2</t>
+          <t>m2ks7hdrix2yo-AINL-141-1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Please design a hybrid car and boat toy, where the upper is like a car an the bottom area is like a boat. So like an upper that has a hood and enclosed cab and windows but the smoothness of a boat.</t>
+          <t>An Aqua Cruiser, a hybrid toy that combines cars and boats into one. It's shaped like a sports car, features retractable wheels and buoyant, watertight bodywork that transforms into a high-speed motorboat. Children can steer the Aqua Cruiser on land with its smooth wheels and remote control, then engage the water mode at the touch of a button.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>m2kxwokake7k9-HMNL-241-3</t>
+          <t>m2kxcckozq0y7-HMNL-233-1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Please design an ugly monstous car and boat hybrid toy, with the steering wheel shaped like on those old pirate wheels and make it have a sail and oars and stuff, but also make it have wheels somehow and rearview mirros</t>
+          <t>You could combine a car and a boat and make a remote control boat and car toy that can both float around in the pool and drive around the yard</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>m2ky7v1pqdsj2-AINL-245-1</t>
+          <t>m2ro984jqrytb-HMNL-537-2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mega cruiser, this toy combines four cars that when put together, so slot together will create a big yacht style cruiser</t>
+          <t>A ferry - a large toy boat which has many smaller car toys within it. It can float, so can be played with in the bath.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>m2ky7v1pqdsj2-AINL-245-2</t>
+          <t>m2kl3jo2fxe83-AINL-5-1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A remote controlled vehicle so on land its car but you can drive it into the water and as soon as its loses the wheels on the ground it will automcatically transform more into a boat with a motor that will propel the boat</t>
+          <t>Introducing the AR Gaming Hydrocar - This toy integrates augmented reality into a hybrid vehicle. AR goggles project interactive game scenarios into real world surroundings. The child can wear the AR goggles which sync to a camera on the remote controlled car, which is an amphibious car, allowing it to also sail on water like a boat!</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>m2ky7v1pqdsj2-AINL-245-3</t>
+          <t>m2kq1v3jpwy9d-HMNL-97-3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A remote control hover vehical that can travel on land and on water without the child having to change it</t>
+          <t>A transformers like toy which can be changed from a car to a boat. One orientation is a car, and the other a boat.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>m2kydd2wjowhj-HMNL-249-1</t>
+          <t>m2l1yo7z059so-AINL-333-2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>The is a remote controlled car toy that can transform into a boat, so it's wheels can flip inside and turn the bottom of the toy into a boat hull that can float in water. By the press of a button the car's wheels flip inside, and tucked inside is a motor that can allow the boat to move and steer using the remote control.</t>
+          <t>A stylish, convertible design that seamlessly transitions from land to water, offering versatility with durable wheels and a robust hull for smooth sailing</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>m2kydd2wjowhj-HMNL-249-2</t>
+          <t>m2l0hk8ch4e9t-HMNL-305-1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A construction type of toy that allows the child build either a car or a boat using the material available. It should be easy to transform from car to boat and allow the child have fun designing the unique elements of each.</t>
+          <t>An all-terrain vehicle called the amphibian this is a remote control vehicle cappable of handling any rugged terrain. Its boyuant six wheels also act as floatation devices that can propel the vehicle over land or water. Its wide base prevents flipping over in the water.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>m2kydd2wjowhj-HMNL-249-3</t>
+          <t>m2m5gra0fqq9b-AINL-445-3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A toy boat which has the ability to store multiple cars on the back of the boat. A slide can be built on the back of the boat that the cars can use and the child can use the ejector button for the car to travel through the slide.</t>
+          <t>SeaSpeed Transformer is a convertible playset which is used to transform into a slick sports car to a dynamic boat</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>m2kyoskr6dcwz-HMNL-257-1</t>
+          <t>m2krre0v7esf8-HMNL-129-3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A huge climbing frame combining half a car and half a boat with a decked area like a boat &amp; lookout post &amp; sail foghorn and the car should have seats, a steering wheel and horn</t>
+          <t>A dune buggy that also has an outboard motor on it so that when you go into the water it turns it into a very fast boat that can hold up to two people.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>m2kyoskr6dcwz-HMNL-257-2</t>
+          <t>m2kpoh5olsoga-HMNL-89-3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A virtual reality game where you can selecr to be in either a car or a boat and choose different roads/tracks or rivers to be driving on or sailing in.  White water rapids or a waterfall where you go over the edge or  a race track where you race with your friends</t>
+          <t>A car toy which, at the touch of a button, releases flotation airbags around its sides, allowing for fun play outside in paddling pools and in the bath.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>m2kyoskr6dcwz-HMNL-257-3</t>
+          <t>m2q6ytxmptzbv-HMNL-481-2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A lifesize boat that children can actually go on and explore everywhere on the boat and dress up pretend to be characters on  a boat such as a captain or a sailor or a passenger</t>
+          <t>a car big enough for children to sit in, but the wheels don't work, and instead the car is propelled by sails like on a boat</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>m2kyti1pmlz7x-AINL-261-1</t>
+          <t>m2m1rq5101pds-HMNL-369-3_duplicate</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>I need boat car that is electric powered and self driving with space that looks just like a car but very functional too like a boat</t>
+          <t>A boat can be used as a trailer for toy cars, used to carry stuffed animals or dolls for one place to the other</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>m2kyti1pmlz7x-AINL-261-2</t>
+          <t>m2rnvrfp4i6dw-AINL-533-2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>It should be like a cartoon character that attracts the children and makes them interested in this double engined Car-boat</t>
+          <t>Meet TideTracker, a new novel toy concept that combines a car, a boat and an exciting treasure hunt theme. This set includes a versatile vehicle that morphs from a car into a boat with the flip of a level. The use of the map encourages imaginative play, cooperation and the development of problem-solving skills.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>m2kyti1pmlz7x-AINL-261-3</t>
+          <t>m2kpuix85gs3q-AINL-93-2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The splashy sailor seal is a charming and functional cartoon character designed to enthrall young audiences. Splashy is delightful seal. Turbo turtle a colourful and dynamic cartoon character designed to captivate children's imagination.. Turbo is a cheerful Car-boat</t>
+          <t>A vehicle that can be a car or a boat - an amphibious vehicle that has inflatable wheels to transform into pontoons so it can float on the water.  This vehicle is powered by voice commands, even including switch to boat/car mode.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>m2kz7crup2pz5-AINL-269-1</t>
+          <t>m2m7pi4hkjr5x-AINL-477-3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Aqua paint synthesiser engages children in an art-based science experiment allowing them to create vibrant aquatic and land patterns . On solid surfaces it rolls and leaves trails like a car and in the water it disperses harmless colourful pigments into beautiful trails.</t>
+          <t>A boat that transforms into a car.  Only one toy needed instead of 2 but double the fun.  Will fit most sized action figures in to both vehicles. More fun and less space needed to pack it</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>m2kz7crup2pz5-AINL-269-2</t>
+          <t>m2l1gekcw4n5t-AINL-325-3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tidal Trek Hovercraft - A model merging drone and toy car tech enabling hover transitions. On land it's a sports coupe and in the water propulsion fans create lift-over- water surfaces</t>
+          <t>Hydro-racer Challenge set is a set that includes two hybrid car-boat vehicles and an adaptive track with both land sections and water pools</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>m2kz7crup2pz5-AINL-269-3</t>
+          <t>m2kpk3zdod0iz-AINL-85-3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Bubble arch rider- A transparent polycarbonate vehicle filled with water resistant mechanisms. On land it's an inflated arch rolling like a giant hoop, it water it serves aa a boyant, see through sumbarine</t>
+          <t>A car which has a removable skin, so the children can change the colours to suit their age and style. This car has a skin which also changes the car into a boat, which fixes across the wheels and doors. There is a sail which can be fixed into the inside of the car to further make the boat exciting. The colours include primary colours, such as red, blue and yellow which are popular with 5 year olds. Also, pastel colours which also appeals to this age group for their soothing properties. Then more complex colour palettes, such as teal and magenta for the older children. The car has a pull back element so the car which then drives forward by itself when the car is released. The boat can go on water and be pushed along or just float using its sails.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>m2kzcscun7ajc-HMNL-273-1</t>
+          <t>m2kqp7fjodp83-AINL-109-3_duplicate</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>make a car in the shape of a box with four tires, it has to be black in color only</t>
+          <t>Combine these items to make a transformer robot! Dismantle pieces of the car and boat, then reformat them strategically to create a cool robot.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>m2kzcscun7ajc-HMNL-273-2</t>
+          <t>m2m4bqtrkswl5-HMNL-417-3</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>mare a boat in form of an oval shape, it has to be a toy with two colors only, white and black</t>
+          <t>A car and a boat artwork in which virtual reality is used so they appear to move in tandem, and as if they are actually before the child. This combines modern technology and engages the child in it, and attracts attention and novelty.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>m2kzcscun7ajc-HMNL-273-3</t>
+          <t>m2m2zrv6ipd7f-HMNL-393-2</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>make the car and the boat small enough for a kid of 4 years old to be able to play with it</t>
+          <t>a boat with the ability to pull a car without wheels behind it with an attachment like an oversized jet ski</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>m2kzcscun7ajc-HMNL-273-4</t>
+          <t>m2m4vz3rhjta6-HMNL-433-3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>if the car is as of the same size as the boat, it should have 4 doors that can be opened and closed as well</t>
+          <t>I'd remove the wheels from the car and use elements from both the car and the boat to create a go-cart that's safe for small children to play in. Children used to make these from old soap boxes and spare wheels, but it's fallen out of fashion, probably due to safety concerns and the ability to purchase ready made bicycles and tricycles. But I think a return to the concept of repurposing components to make go-carts would be beneficial for children and could be done safely.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>m2kzihhys21m1-AINL-277-1</t>
+          <t>m2ko27n9jy57w-AINL-53-2</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>The AquaCruiser toy to help autistic children become comfortable with swimming and water activities. Sometimes autistic children are mesmerized with wheels, but afraid of water, so this toy would be a gateway to becoming comfortable with water sports.</t>
+          <t>This toy consistes of a small toy car which drives down a ramp on to a boat on water. When the car lands on the boat, the boat moves to the opposite bank. It works as a ferry.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>m2kzihhys21m1-AINL-277-2</t>
+          <t>m2q92a1yay1st-AINL-493-2_duplicate</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>The AquaRacer, combination boat and car toy with LED lights so children can race cars under water and at night.</t>
+          <t>Have hours of fun driving cap’n birdseye around in a car while his crew mutiny and sail the boat to a faraway land where haribos are free! They may return at some poiint to share the swag … but there’s no guarantee. Also, the cap’n will try to escape to grill some fish fingers for his tea. Hours of fishy tooth rotting fun! aaaaarrrrrr!</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>m2kzihhys21m1-AINL-277-3</t>
+          <t>m2m23lxpm3ev9-HMNL-377-1_duplicate</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>The SeaRoad Cruiser, a ride-on toy that children can use both in the water and on land. It would be made of plastic and it would have both wheels and pontoons.</t>
+          <t>RIDEABLE DRIVEABLE CAR THAT CAN ALSO BE USED IN THE WATER - CAN DRIVE FROM LAND INTO THE WATER AND IT OPERATES LIKE A BOAT ON THE WATER. BATTERY POWERED, HIGH QUALITY CONSTRUCTION BUT LIGHTWEIGHT.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>m2kzo3gry4sg7-HMNL-281-1</t>
+          <t>m2kvpvsck1x1p-AINL-213-2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MUDRUNNER- a small remote vehicle that can travel on both land and water, small yet powerful electric engine allows it to gain high speeds on land, just by switching wheels to propellers it can transform into a boat. Due to it's light weight it also floats on surface.</t>
+          <t>an inflatable car like boat toy that children can use to play. it will be designed to look like a car when inflated but when placed in water, it floats. it will have an opening at the back with a cap where air can be blown in to inflate the car. the cap is closed immediately the air is blown in and the car like boat is inflated.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>m2kzo3gry4sg7-HMNL-281-2</t>
+          <t>m2rnv1hgviv0s-HMNL-529-2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Hydrocar- a pedal car suited for 2 children, when driven into water floats, becoming a boat. It is a fun toy that helps childern stay active.</t>
+          <t>A race track that also includes water features and the requirements of both boat and car functionality, One competitor could be a boat with wheels, the other a car with floats and the two race across a track which includes water and road terrains.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>m2kzo3gry4sg7-HMNL-281-3</t>
+          <t>m2kyti1pmlz7x-AINL-261-2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bocar- a small hot wheel like toy, that looks like car from the top, and like a boat from the underside, it lets children have fun creating various scenarios for funtime.</t>
+          <t>It should be like a cartoon character that attracts the children and makes them interested in this double engined Car-boat</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>m2kzo3gry4sg7-HMNL-281-4</t>
+          <t>m2m4mukonj88m-AINL-429-4</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>surfboard- a surfboard created from hard foam, that hardens when dry, then you can attach wheels to act as a skateboard.</t>
+          <t>the above designs could be made specifically for boys and girls , and there could be an adult one too.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>m2kzsg6e23cpq-AINL-285-1</t>
+          <t>m2km9dmge4d18-HMNL-9-2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A creative idea for a toy car is the 'Mini safari explorer'. This battery-powered, jeep-style ride-on vehicle is designed for adventurous children children.</t>
+          <t>River Racer - a combination of a racing boat and a racing car, composed of bright colours and sporty decals</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>m2kzsg6e23cpq-AINL-285-2</t>
+          <t>m2m3ykajc3qau-AINL-413-2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Introducing the 'Eco racer'. This innovatively designed toy car encourages environmental awareness among children, the eco racer is solar powered, featuring a compact photovoltaic panel on its roof that energizes a small, quite engine.</t>
+          <t>I have an idea for a remote controlled vehicle toy that functions as a car on land and a boat on water. To accomplish this, it would have to change seamlessly from car to boat, or vice versa, as the situation demands. Car wheels would have to retract if the vehicle enters water, and any boat motor would have to retract if the vehicle changes back into a car. The entire vehicle would have to be waterproof, especially electrical components. It could also be adorned with LED lights for style. The remote control could be able to switch functions depending on which mode the vehicle was using.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>m2kzsg6e23cpq-AINL-285-3</t>
+          <t>m2kpk3zdod0iz-AINL-85-2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Introducing the 'High seas adventure ship', a captivating toy for children aged 5-11 designed to spark imagination and exploration. This miniaturized sailboat features a colorful, removable canopy sail and a durable, child-safe plastic hull that float effortlessly.</t>
+          <t>A colourful boat, which has a remote control. The boat can be played with in the bath, on lakes or rivers. It can be controlled from the land or in the water. There is a special button, which when pressed makes the boat jump in the air and transform into a car. This happens when the boat is taken onto land. It comes in a number of colours, which are attractive to children. It has different difficulty levels for the different age groups on the remote control.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>m2l0d8llovsre-HMNL-297-1</t>
+          <t>m2q9oiuzxkoc1-HMNL-505-3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>a motorized combination of a car and boat. The top will be the car, but the bottom will be the boat and it can float on water. If on land, there will be 4 small flaps that can be opened and tires can be popped in so that it can move on land.</t>
+          <t>interchangeable parts include parts like big rugged wheels for off read land adventures and detachable pontoons for water play ..</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>m2l0d8llovsre-HMNL-297-2</t>
+          <t>m2m174nigbtt8-HMNL-353-3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>a boat that acts like a barge and can place a car on top and can be placed in water to act like a ferry.</t>
+          <t>Wind up toy car that accelerates when pulled back but also with a small propeller. This car can float and when entering the water the car can continue.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>m2l0d8llovsre-HMNL-297-3</t>
+          <t>m2ktlu2z3ixfz-HMNL-169-1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A car toy with a hitch or trailer that can pull a boat behind it. The boat will work on the water and the car on land and be played with seperately or together.</t>
+          <t>We can create a Boataxy which will be able to run in the road as well as in the water. We combined the two concept and put it in one form and make a combined vehicle.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>m2l0fv7e9rgdt-AINL-301-1</t>
+          <t>m2ku94iyop9ey-AINL-181-2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>the toy car transform into a boat upon submersion into water. Featuring wheels that retract and propellers that engage in its aquatic</t>
+          <t>AquaTrail Blazer is a fun toy that has the body of a car and has retractable pontoon arms that extend out so that it can float in water.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>m2l0fv7e9rgdt-AINL-301-2</t>
+          <t>m2kxcckozq0y7-HMNL-233-3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A two-part playset, with a toy car that docks into floating garage. the garage resembles a floating docks and offers storage and lauching capabilities.</t>
+          <t>You could have a drawing set that is designed to allow the child to color inside the lines and the coloring book could have a picture of a car and a boat that is combined together, like the Volkswagen Schwimmwagen</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>m2l0fv7e9rgdt-AINL-301-3</t>
+          <t>m2l0hk8ch4e9t-HMNL-305-2</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>An adventurous racetrack set merging elements of land and water racing. The toy car zooms down ramps, hit a water section</t>
+          <t>A ridable powerwheels car that the kids can drive. Works like a regular powerwheels car, but can add an inflatible ring that attaches to the outside of the car. adding a propeller to the drive train can convert from a car to a boat.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>m2l0hk8ch4e9t-HMNL-305-1</t>
+          <t>m2ks7hdrix2yo-AINL-141-2_duplicate</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>An all-terrain vehicle called the amphibian this is a remote control vehicle cappable of handling any rugged terrain. Its boyuant six wheels also act as floatation devices that can propel the vehicle over land or water. Its wide base prevents flipping over in the water.</t>
+          <t>The Wave Racer Turbo, a two-in-one adventure toy merging the excitement of racing cars and speedboats. It features a convertible chassis that cleverly morphs from a sleek race car into a high-performance speedboat. The toy has quick-release mechanisms: the wheels fold up into slick pontoons for aquatic fun. In car mode, it zooms over diverse terrain with pull-back motor, while in boat mode, it glides across the water propelled by a wind-up jet propeller.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>m2l0hk8ch4e9t-HMNL-305-2</t>
+          <t>m2kt64ghshou1-AINL-165-3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A ridable powerwheels car that the kids can drive. Works like a regular powerwheels car, but can add an inflatible ring that attaches to the outside of the car. adding a propeller to the drive train can convert from a car to a boat.</t>
+          <t>Brightly colored, oversized rubber duckie shape that conceals the dual purpose functions of a car-boat. On land, springs cause it to bounce as it moves in a very funny fashion. The wings transform into flippers that move the boat through the water, splashing and quacking along the way.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>m2l0hk8ch4e9t-HMNL-305-3</t>
+          <t>m2q9oiuzxkoc1-HMNL-505-1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A nautical themed car seat put your kids in the captians chair. The carseat is designed to put your kid at the helm of the car trip, complete with a pretend throttle, a navigation system and aft storage for the kids favorite activities. While you are navigating the road, let the captains car seat navigate your childs imagination.</t>
+          <t>amphibious car make the toy durable and waterproof with wheels that can and retract or become paddles when in water</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>m2l1439fqol2y-AINL-317-1</t>
+          <t>m2kqe4wa07t8v-HMNL-105-3</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Floating Rescue Car: This toy transforms into a rescue boat, perfect for outdoor adventures. It encourages role playing for kids.</t>
+          <t>Speed boat and Car Racing: This is a simulation game that is able to simulate a race between cars and boats, the child sets the race track and is able to carry out races between cars and speed boats.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>m2l1439fqol2y-AINL-317-2</t>
+          <t>m2l0fv7e9rgdt-AINL-301-3</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Eco Adventure Vehicle: Educational toy that transforms from a car to a boat utilizing solar power. It teaches kids about renewable energy.</t>
+          <t>An adventurous racetrack set merging elements of land and water racing. The toy car zooms down ramps, hit a water section</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>m2l1439fqol2y-AINL-317-3</t>
+          <t>m2kz7crup2pz5-AINL-269-1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Splash and Race Track Set: A dual-purpose playset with detachable sections that convert from a dry race track to a waterway!</t>
+          <t>Aqua paint synthesiser engages children in an art-based science experiment allowing them to create vibrant aquatic and land patterns . On solid surfaces it rolls and leaves trails like a car and in the water it disperses harmless colourful pigments into beautiful trails.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>m2l16144e7ao4-HMNL-321-1</t>
+          <t>m2kzcscun7ajc-HMNL-273-3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A playset featuring an ambitious vehicle that explores land and water environments. Features, articulated vehicles with movable parts example propellers</t>
+          <t>make the car and the boat small enough for a kid of 4 years old to be able to play with it</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>m2l16144e7ao4-HMNL-321-2</t>
+          <t>m2m3iqj516hkj-AINL-405-3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>a transformable toy that converts from a sleek racing car to a speedboat. Features, retractable wheels and foldable wings for seamless transformation</t>
+          <t>BattleWave Explorer. A multiplayer game where each player has a hybrid car boat vehicle. The aim is to virtually destroy your opponent by firing at them with the on board water gun This is controlled via a remote control. To reload you will need to drive into water and enable the propellor and then take on more water.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>m2l16144e7ao4-HMNL-321-3</t>
+          <t>m2kstaz2blxwu-AINL-157-2</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A track base toy featuring cars that transforms in to boats, navigating through water filled loops and jumps . .</t>
+          <t>Aerodynamic body to reduce friction. Fuel effeciency The interior should have infotainment and security/safety features Customized paint for personalized touch.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>m2l1gekcw4n5t-AINL-325-1</t>
+          <t>m2kmyrigc36la-HMNL-33-2</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Aqua Terrain Transformer is a wind-up vehicle that can transition between a robust car and a sleek boat. this can function well both on land and water.</t>
+          <t>I will design a transformer car that can transform into a boat. Inspiration is from the movie transformer but none of the cars transforms into a boat. This would be a cool feature for kids. I will call it Aquashifter</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>m2l1gekcw4n5t-AINL-325-2</t>
+          <t>m2kt64ghshou1-AINL-165-2</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Submarine Speedster has a shape of a futuristic car that changes in a submarine-like boat with a twist of a knob</t>
+          <t>This toy is a car/boat for your guinea pig or hamster! It has a ball on a gyroscope that holds the critter and allows it to stay stable as the car/boat travels. It is also water tight just in case, but must only be used under adult supervision.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>m2l1gekcw4n5t-AINL-325-3</t>
+          <t>m2kos8of3weda-HMNL-73-3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hydro-racer Challenge set is a set that includes two hybrid car-boat vehicles and an adaptive track with both land sections and water pools</t>
+          <t>A virtual reality headset that allows the child to travel in a car/boat. The child can drive the car/boat and the VR headset gives the impression of movement, as well as a world surrounding their vechile and their journey. They can invite other children with headsets to join them and be driven in their car or boat, before switching vechiles and hopping on board their friends' vechile.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>m2l1m6mrcga4t-HMNL-329-1</t>
+          <t>m2ko27n9jy57w-AINL-53-3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>The first toy is a buld you own kit which would include novel items and these items would need to be used to create something which can function as a vehicle. The aim of the game would be to either resemble a vehicle i.e have 4 tires or function as a car i.e drive and move. However the items provided in the box will be random and in some cases everyday items like cardboard, shoelaces etc and more points will be given for any other unique items used, the children could use their own items making this game very replayable rather than a one off. There would be a checklist such as coolest design, most functioning and the person with the highest score would win. Now the twist would be that once the car is made, you would have to sumberge it in water so the children would have to design a vehicle that not only moves but can float and this would really be creative and make the children think out of the box.</t>
+          <t>This toy has the hull of a large toy boat with the superstructure of a car in which the child sits. The car pedals operate a simple propellor at the rear of the boat which propels the craft forward in the pool.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>m2l1m6mrcga4t-HMNL-329-2</t>
+          <t>ATTENTION_CHECK_8_NL</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>the second toy is an interesting game where the aim would be to create a boat using building blocks, but the boat would need to float so you would have to not build it with too much weight, it would need storage and a ramp, the aim would be to slide the car from the top of the boat and get the car on land. The building blocks would allow for crazy designs and unique scenarios and the twist of landing the car would mean a good ramp would need to be built.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>m2l1m6mrcga4t-HMNL-329-3</t>
+          <t>m2km9n1tcpq18-AINL-13-1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>My third toy which is a twist on a pirates game. You would need to loot the cars and boats . On each vehicle there are hidden chets and the children would need to deconstruct the cars and break them apart, however they would be complex and could not be broken with force rather through intelligence such as memorising codes to input to unlock locks and solving puzzles.</t>
+          <t>HydroRacer 5000. This toy blends the thrill of racing cars with the adventurous spirit of boating. It features a sleek aerodynamic design</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>m2l1yo7z059so-AINL-333-1</t>
+          <t>m2kw4g5lrbgp1-HMNL-217-2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>A sleek compact car with integrated solar panels on the roof to charge an electric battery for a sustainable and eco friendly driving experience</t>
+          <t>Cruise ride is the toy name. Both the car and the boat will be placed sideways with buttons which can be pushed to hide one face when placed flat.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>m2l1yo7z059so-AINL-333-2</t>
+          <t>m2m53l3x1rdph-HMNL-441-3_duplicate</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A stylish, convertible design that seamlessly transitions from land to water, offering versatility with durable wheels and a robust hull for smooth sailing</t>
+          <t>very innovating to keep children bust while outdoor. helps kids be busy with outdoor activities and water sport. good for body heathy</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>m2l1yo7z059so-AINL-333-3</t>
+          <t>m2l0d8llovsre-HMNL-297-1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A luxurious yacht  equipped with AI technology, proving automated naviagtion, smart energy management, and customizable interior settings, smart energy management</t>
+          <t>a motorized combination of a car and boat. The top will be the car, but the bottom will be the boat and it can float on water. If on land, there will be 4 small flaps that can be opened and tires can be popped in so that it can move on land.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>m2m0sfqrktntr-AINL-341-1</t>
+          <t>m2knoj3zpaab0-AINL-45-1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A waterproof car with retractable wheels and propellers. Used as a car on land and seamlessly converts to a boat in water. Remote controlled.</t>
+          <t>aquaracer  aquaracer is a aerodynamic toy which can transition between land and water with rectranle wheels. in water the wheels rectract and it becomes a boat</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>m2m0sfqrktntr-AINL-341-2</t>
+          <t>m2l1439fqol2y-AINL-317-3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A modular set that can be combined in various ways to create multiple car-boat creations. Snap on parts are easy for kids to work with and follow their creativity.</t>
+          <t>Splash and Race Track Set: A dual-purpose playset with detachable sections that convert from a dry race track to a waterway!</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>m2m0sfqrktntr-AINL-341-3</t>
+          <t>m2kmb8c916li7-AINL-21-1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A wind up toy that combines the wheels of a vehicle and the paddles of a boat. Suitable for use on land and water. Collectible characters included.</t>
+          <t>A car can transform into a boat when it is on water and a car when it is on land.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>m2m0tpi4tmzcd-HMNL-345-1</t>
+          <t>m2m3ykajc3qau-AINL-413-1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A boat car that can go from land to sea or vice versa.  A vehicle that would allow the child to add characters inside in seats.  The ability for the toy to be water tight so it will actually float when put on the water.  Durable material for this age group as kids like to drop things.</t>
+          <t>I have an idea about designing a children's electric car to be waterproof so that it can continue to travel over bodies of water. For safety, the cabin of the occupant would have to be sealed watertight, including any doors and windows. There would have to be a flotation device available in case of emergencies. All electrical components would have to be waterproof as well.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>m2m0tpi4tmzcd-HMNL-345-2</t>
+          <t>m2ktz1cy721fa-HMNL-177-1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A motorize speed boat that has the ability to shift like a car with a remote control.  Must be a durable material and with a tracker so that the remote can find it if you lose it.  As kids always lose things.</t>
+          <t>A car that turns into a boat. Based on the real life car that becomes submersive the moment it touches the water, I feel like this could help transition kids from playtime in the evening to bathtime quite easily. With wheels that disappear up into the car and a buoyant float that activates when the water touches a sensor beneath, this could show innovation through technology with perhaps a noise indicating the switch between car and boat to keep their attention. This could also have characters that can sit in the boat, and depending on the difference between boat and car, come with different catchphrases when they sit in the sensors of the car-seats, so they become active when placed in the seats and it's almost an interactive experience.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>m2m0tpi4tmzcd-HMNL-345-3</t>
+          <t>m2rnv1hgviv0s-HMNL-529-3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A pull back car that has the features of a boat.  Whether it is a sailboat, speed boat or even a cruise ship.  The body of a boat with the durability needed to survive children of a young age.</t>
+          <t>A toddler toy - steamboat with wheels on the side which spin when you pour water into the funnel. It floats in the bath and sprays water when the wheels spin.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>m2m0wjlp3tsnq-AINL-349-1</t>
+          <t>m2q92a1yay1st-AINL-493-4</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>aquaracer adventure vehicle. Is an innovative to thats the combination of a durable car and a dynamic boat, which ensures endless fun for children aged 5-11.</t>
+          <t>play with your toy car (used by insects) whilst floating in your boat for bathtime fun. play with your toy boat (insects only) whilst taking a leisurely drive around toys r us … looking for something better to play with (not difficult).</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>m2m0wjlp3tsnq-AINL-349-2</t>
+          <t>m2l0d8llovsre-HMNL-297-3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>turbotide, is an amphibious vehicle with seamless transitions from speeding across land to cutting through water, ensuring nonstop excitement and fun for kids</t>
+          <t>A car toy with a hitch or trailer that can pull a boat behind it. The boat will work on the water and the car on land and be played with seperately or together.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>m2m0wjlp3tsnq-AINL-349-3</t>
+          <t>m2kzsg6e23cpq-AINL-285-1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>thunderwave hyper catamaran, is an astonishing toy that is designed to dash across water at a suprising speed which even outpaces speedboats, a toy for kids aged 5-11</t>
+          <t>A creative idea for a toy car is the 'Mini safari explorer'. This battery-powered, jeep-style ride-on vehicle is designed for adventurous children children.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>m2m174nigbtt8-HMNL-353-1</t>
+          <t>m2kwp624e0mtv-HMNL-225-3</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A hotwheels sized toy car that fits into a similar sized boat hull, with 4 divets to place the car wheels. Mix and match different designs</t>
+          <t>The AquaCraft is a toy that looks mostly like a standard car, but has an on-land mode and a water mode. When on land, the toy operates as any standard RC car, and when in water mode, the car is able to be controlled like a boat. The AutoCraft has a waterproof engine that helps to propel the toy, and instead of standard rudders, each pairs of tires will help to steer the toy.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>m2m174nigbtt8-HMNL-353-2</t>
+          <t>m2m0wjlp3tsnq-AINL-349-3_duplicate</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>A remote controlled car with inflatable wheels. Small paddles extending from the tires allow it to drive on top of water.</t>
+          <t>thunderwave hyper catamaran, is an astonishing toy that is designed to dash across water at a suprising speed which even outpaces speedboats, a toy for kids aged 5-11</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>m2m174nigbtt8-HMNL-353-3</t>
+          <t>m2m53l3x1rdph-HMNL-441-1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Wind up toy car that accelerates when pulled back but also with a small propeller. This car can float and when entering the water the car can continue.</t>
+          <t>amphibious boat car. means of transport viable on land and water as well as on or under water. very adventurous</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>m2m1rq5101pds-HMNL-369-1</t>
+          <t>m2m386s728hlb-AINL-397-2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A boat can be used as s soap holder for bathtime, it can be used to hold the soap or the washcloth</t>
+          <t>The wind up turbo - targeted to the imagination of children age 5 to 11. This bright and eye catching toy features a cartoon style car attached on top of a bright and bold boat hull. Operated by a child friendly wind up mechanism. Children simply wind the toy up and they can watch it whizz across the ground or splash through the waters - thanks to its paddle - powered propellers. Featuring a removable toy 'character' who sits in the top. To help encourage story telling and imagination . Durable and waterproof. Perfect for use in the home and at bath time.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>m2m1rq5101pds-HMNL-369-2</t>
+          <t>m2q92a1yay1st-AINL-493-2</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>a boat can be used as bathtub to wash stuffed animals and or dolls or to wash dolls clothes or</t>
+          <t>Have hours of fun driving cap’n birdseye around in a car while his crew mutiny and sail the boat to a faraway land where haribos are free! They may return at some poiint to share the swag … but there’s no guarantee. Also, the cap’n will try to escape to grill some fish fingers for his tea. Hours of fishy tooth rotting fun! aaaaarrrrrr!</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>m2m1rq5101pds-HMNL-369-3</t>
+          <t>m2kndjq851wkj-HMNL-41-3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A boat can be used as a trailer for toy cars, used to carry stuffed animals or dolls for one place to the other</t>
+          <t>You've heard of Formula One, now get ready for Formula B! This F1-inspired car design can clip into the hull of a speedboat, making a toy that's versatile and looks cool. Kids will love it and want to play with it! Comes in a variety of colours and boat hulls so you can mix and match your favourite colours and designs, so whether you're on land on on the water, you'll be a champion with Formula B.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>m2m1yhll5tmol-AINL-373-1</t>
+          <t>m2kurwjk7mq1h-HMNL-193-2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>.AquaRacers Splash &amp; Speed. A transforming car that can change into a boat. When on land it is a fast racing car. When in the water buoyant wings unfold and it becomes a speedboat.</t>
+          <t>A dual mode adventure vehicle  I can be a remote-controlled kinda toy that is amphibious. It can be like the cars in GTA Vice City after using the cheat Seaways that can drive in land but whenever touches the water the wheels go sideways and have floating materials on the rims so that it can float. Then when the wheels move, they propel the water.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>m2m1yhll5tmol-AINL-373-2</t>
+          <t>m2m0sfqrktntr-AINL-341-3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A dual environment toy. It begins as a off road car. Then when a switch is pressed the wheels retract and a propeller system appears. Sound effects are included. Accessory packs can be used to modify the toy.</t>
+          <t>A wind up toy that combines the wheels of a vehicle and the paddles of a boat. Suitable for use on land and water. Collectible characters included.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>m2m1yhll5tmol-AINL-373-3</t>
+          <t>m2m1rq5101pds-HMNL-369-1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>This idea features an intuitive magnetic mechanism for easy mode transition. As a car it has light up rims. Then tires snap into hull pods and it becomes a fast boat. It uses solar power so is eco friendly.</t>
+          <t>A boat can be used as s soap holder for bathtime, it can be used to hold the soap or the washcloth</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>m2m23lxpm3ev9-HMNL-377-1</t>
+          <t>m2kpoh5olsoga-HMNL-89-1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>RIDEABLE DRIVEABLE CAR THAT CAN ALSO BE USED IN THE WATER - CAN DRIVE FROM LAND INTO THE WATER AND IT OPERATES LIKE A BOAT ON THE WATER. BATTERY POWERED, HIGH QUALITY CONSTRUCTION BUT LIGHTWEIGHT.</t>
+          <t>The 'Land-to-Sea Convertible', a toy car which, at the press of a button, can retract its wheels and drop down a smooth hull, allowing kids to play with a toy vehicle in a novel and fantastical way -- taking huge leaps and landing in the water with a splash.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>m2m23lxpm3ev9-HMNL-377-2</t>
+          <t>m2l1439fqol2y-AINL-317-2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A BOAT THAT WHEN DRIVEN CLOSE TO THE SHORT A BUTTON IS PRESSED AND THE BOTTOM HALF OF A CAR EXTENDS FROM THE KEEL OF THE SHIP ELIMINATING THE NEED FOR A TRAILER TO MOVE IT FROM HOME TO THE WATER.</t>
+          <t>Eco Adventure Vehicle: Educational toy that transforms from a car to a boat utilizing solar power. It teaches kids about renewable energy.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>m2m23lxpm3ev9-HMNL-377-3</t>
+          <t>ATTENTION_CHECK_9_NL</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>A SMALL REMOTE CONTROL CAR TOY THAT HAS A BUILT IN SET OF OARS THAT EXTEND AT THE PRESS OF A BUTTON ALLOWING THE CAR TO PROPEL ITSELF ON THE WATER. THE SAME ELECTRIC MOTOR THAT POWERS THE WHEEL SWITCHES TO POWERING THE ROWING OF THE OARS.</t>
+          <t>Please select "Extremely" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>m2m2fg522rw8f-AINL-381-1</t>
+          <t>m2kydd2wjowhj-HMNL-249-3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>turbo aqua racer, a dual terrain toy that can go on land using wheels while in the water the hull transforms into a speedboat. In the water the boat uses jet propulsion and emits sounds and flashing coloured lights allow it to be used at night</t>
+          <t>A toy boat which has the ability to store multiple cars on the back of the boat. A slide can be built on the back of the boat that the cars can use and the child can use the ejector button for the car to travel through the slide.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>m2m2fg522rw8f-AINL-381-2</t>
+          <t>m2m2hcth2ze2x-HMNL-385-1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>the commando amphibious defender. a radio controlled toy that transforms seamlessly from land to water. It can be used outdoors in large bodies of water and has gun turrets that can fire projectiles at other boats and people. Targets come with the toy that allow you to have competitions with other toy owners</t>
+          <t>I would produce a small motorised vehicle  that can be controlled (steered) via bluetooth using a phone app. On land, it would propel itself using wheels. However, it would be capable of floating and at the touch of a button, the wheels would retract and it would switch to propeller mode and function as a boat.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>m2m2fg522rw8f-AINL-381-3</t>
+          <t>m2kl3jo2fxe83-AINL-5-3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>The Stealth Navigator. A car boat combo toy engineered for the ultimate outdoor adventure. With its sleek black finish and adapative colour technology that allows it to blend in with its surroundings. It is able to go anywhere and spy on people, with built in mics and speakers, you can use it to record the conversations of others with out them knowing. It can also be used as a spy in nature, allowing it to get close to animals and through its on board cameras, allow the user to make their own nature documentary.</t>
+          <t>Floating Race Track Set - This toy involves children creating their own race track which can include land based and water based elements. This is achieved through thje children placing waypoints or checkpoints that the car/boat must pass to complete the race. The remote control car can retract its wheels and deploy a propellar for water sections of the race</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>m2m2hcth2ze2x-HMNL-385-1</t>
+          <t>m2m4bqtrkswl5-HMNL-417-2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>I would produce a small motorised vehicle  that can be controlled (steered) via bluetooth using a phone app. On land, it would propel itself using wheels. However, it would be capable of floating and at the touch of a button, the wheels would retract and it would switch to propeller mode and function as a boat.</t>
+          <t>Using string which attaches the car and boat and can be hung up say from the ceiling. This would be attractive to the child as a visual image and gets its attention and engage the child.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>m2m2hcth2ze2x-HMNL-385-2</t>
+          <t>m2l1439fqol2y-AINL-317-1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>My second idea is for a larger vehicle with wheelsthat the child can sit in and propel with their feet (it would have no floor, so the child's feet could push the vehicle along. It would be steered using a steering wheel. It would again be capable of floating, though it would need to be VERY stable! When in the water, the child could either propel it by kicking their feet, or better still, there would be hand cranked rotary paddles (like on a paddle-steamer) each side that could function both to propel the boat and to steer it. Another version might also use hand-cranking to propel and steer the vehicle on land.</t>
+          <t>Floating Rescue Car: This toy transforms into a rescue boat, perfect for outdoor adventures. It encourages role playing for kids.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>m2m2hcth2ze2x-HMNL-385-3</t>
+          <t>m2m3pt9l86i1l-HMNL-409-3</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>The final version would be a construction kit using which the child could make either a boat, a car or a vehicle that combined the two in one form. This kit would include various types of motor, wheels and even tracks. It might have instructions as to how to build various classic amphibious vehicles such as the DUKW and VW Schwimmwagen from WWII - these are essentially a combination of car and boat!</t>
+          <t>This toy set features a combination of a car race track and a waterway for boats. The excitement comes from racing the car down the track, which finishes in a splash zone, such as a small pool or canal. Once the car reaches the water, it transforms into a boat, allowing it to float and continue the adventure in the water.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>m2m2sh27q44qt-AINL-389-1</t>
+          <t>m2kzihhys21m1-AINL-277-1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transforming Amphibious Race Car: A sleek car that transforms into a boat with a quick snap. Equipped with retractable wings and a fin for stability, it features water-splashing action. The built-in mini engine runs smoothly on land and water. Lights and sound effects can be triggered by pressing the rooftop button, ensuring an exhilarating adventure on mixed terrains. This action-packed toy invites young explorers to navigate high-speed races on land and launch into splash-filled chases on water, ensuring a dynamic playtime full of adrenaline!</t>
+          <t>The AquaCruiser toy to help autistic children become comfortable with swimming and water activities. Sometimes autistic children are mesmerized with wheels, but afraid of water, so this toy would be a gateway to becoming comfortable with water sports.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>m2m2sh27q44qt-AINL-389-2</t>
+          <t>m2q6ytxmptzbv-HMNL-481-1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modular Adventure Kit: A DIY toy kit with interchangeable parts to create a car, boat, or hybrid. Kids can customize wheels, sails, and motors, encouraging creativity and problem-solving skills. The toy's interactive companion app provides instructions and challenges to navigate obstacle-filled courses, merging physical play and digital interaction. With endless configurations and ever-changing challenges, this kit transforms any playroom into a thrilling engineering world where young inventors become the architects of their own ultimate adventure!</t>
+          <t>a floatable toy that looks like a boat but has working wheels on the bottom, so the toy can function as a boat during bath time and also outside of the bath on any other surface</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>m2m2sh27q44qt-AINL-389-3</t>
+          <t>m2m0tpi4tmzcd-HMNL-345-2_duplicate</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Solar-Powered Eco Explorer: This dual-mode vehicle harnesses solar energy, promoting sustainability. The car features all-terrain rugged wheels, while its hull deploys for water adventures. The toy's transparent panels expose inner workings, sparking curiosity and learning about green energy. Children can explore various educational missions involving ecology, encouraging a sense of responsibility toward the environment. Make waves and blaze trails with this eco-friendly marvel, as kids embark on exciting missions that not only entertain but also inspire a greener tomorrow!</t>
+          <t>A motorize speed boat that has the ability to shift like a car with a remote control.  Must be a durable material and with a tracker so that the remote can find it if you lose it.  As kids always lose things.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>m2m2zrv6ipd7f-HMNL-393-1</t>
+          <t>m2m2fg522rw8f-AINL-381-1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>car shaped like a boat, with wheels that can be tucked out of the way underneath the body of the vehicle.</t>
+          <t>turbo aqua racer, a dual terrain toy that can go on land using wheels while in the water the hull transforms into a speedboat. In the water the boat uses jet propulsion and emits sounds and flashing coloured lights allow it to be used at night</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>m2m2zrv6ipd7f-HMNL-393-2</t>
+          <t>m2ko6asjd367j-HMNL-57-2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>a boat with the ability to pull a car without wheels behind it with an attachment like an oversized jet ski</t>
+          <t>Splash Racer- This is a car toy that can transform into a boat or a race car. This toy can also run on both water and land.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>m2m2zrv6ipd7f-HMNL-393-3</t>
+          <t>m2kyti1pmlz7x-AINL-261-3</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>a large boat shaped like a passenger ferry that has the ability to carry cars and other vehicles in it's hold</t>
+          <t>The splashy sailor seal is a charming and functional cartoon character designed to enthrall young audiences. Splashy is delightful seal. Turbo turtle a colourful and dynamic cartoon character designed to captivate children's imagination.. Turbo is a cheerful Car-boat</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>m2m386s728hlb-AINL-397-1</t>
+          <t>m2krre0v7esf8-HMNL-129-2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>'Blue racer 3000' bringing the fun of boats and cars together, suitable for children and 5 to 11. This thrilling toy is perfect for young thrill seekers. Featuring a sporty car body, with a floatable and strong base. With large bright wheels. The toy can be a mini car on land, with the wheels retracting inside the base to transform in to a mini speedboat for use in water. Included is a child friendly remote control, allowing children to steer on land and in waters. Non toxic and durable materials makes it safe and easier for young children to navigate.</t>
+          <t>A hovercraft that when it goes on land has wheels that then turn it into a giant car that can drive.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>m2m386s728hlb-AINL-397-2</t>
+          <t>m2q96c6466ggf-HMNL-497-1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>The wind up turbo - targeted to the imagination of children age 5 to 11. This bright and eye catching toy features a cartoon style car attached on top of a bright and bold boat hull. Operated by a child friendly wind up mechanism. Children simply wind the toy up and they can watch it whizz across the ground or splash through the waters - thanks to its paddle - powered propellers. Featuring a removable toy 'character' who sits in the top. To help encourage story telling and imagination . Durable and waterproof. Perfect for use in the home and at bath time.</t>
+          <t>Remote controlled duck boat that can be driven on land and can seamlessly be driven into the water and become a functioning boat. It'll mimic the functional design of duck-boats in Boston and the sleek design of James Bond's car from The Spy Who Loved Me</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>m2m386s728hlb-AINL-397-3</t>
+          <t>m2m2sh27q44qt-AINL-389-3</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>The splash drift duo - A 2 in 1 toy targeted to kids age 5 to 11 combining cars and boats. This exciting duo can be a compact racing car or a sturdy durable boat. With a twist mechanism. Simply twist to transform in to the chosen toy. With a set of detachable characters to encourage role play and imagination. Whilst also promoting STEM learning. As children can explore the difference concepts such as 'motion and buoyancy' in boat mode and explore the 'terrains' in car mode. Educational fun!</t>
+          <t>Solar-Powered Eco Explorer: This dual-mode vehicle harnesses solar energy, promoting sustainability. The car features all-terrain rugged wheels, while its hull deploys for water adventures. The toy's transparent panels expose inner workings, sparking curiosity and learning about green energy. Children can explore various educational missions involving ecology, encouraging a sense of responsibility toward the environment. Make waves and blaze trails with this eco-friendly marvel, as kids embark on exciting missions that not only entertain but also inspire a greener tomorrow!</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>m2m3iqj516hkj-AINL-405-1</t>
+          <t>m2kwp624e0mtv-HMNL-225-2</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AquaRacer Duo. A remote control car / boat. When in water the wheels retract into the chassis. And then can drop back out when on land.  The remote will have a screen as the car is toy is equiped with a camera so the user has a first person view.</t>
+          <t>The AutoSail toy combines the look of a traditional sail boat with the features of a car. The AutoSail has wheels for play outside the water with its sailed tucked into a compartment. And when the water is reached, the functional sails can be assembled for use in practically any body of water.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>m2m3iqj516hkj-AINL-405-2</t>
+          <t>m2kzcscun7ajc-HMNL-273-4_duplicate</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A floating boat / platform with a few sized ramps near the edge. On the platform will be a pull back motor car. The idea is to see how far the car can be launched of the platform. This would have a measuring tape built into the platform to create competition. The car may be able to be customized with different wheels / body shape to create variety.</t>
+          <t>if the car is as of the same size as the boat, it should have 4 doors that can be opened and closed as well</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>m2m3iqj516hkj-AINL-405-3</t>
+          <t>m2m4vz3rhjta6-HMNL-433-1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BattleWave Explorer. A multiplayer game where each player has a hybrid car boat vehicle. The aim is to virtually destroy your opponent by firing at them with the on board water gun This is controlled via a remote control. To reload you will need to drive into water and enable the propellor and then take on more water.</t>
+          <t>I would combine a full size car and a full size boat in a playground to make a fantasy vehicle (fixed to the ground) that children can safely climb on and play in. It would have, for example, a moving steering wheel and buttons to press, so children could pretend they were driving, sailing or even flying in this magical machine.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>m2m3pt9l86i1l-HMNL-409-1</t>
+          <t>m2m0wjlp3tsnq-AINL-349-2</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Design A toy with interchangeable parts that let children construct either a car or a boat, with the flexibility to combine features of both.  Play Concept Kids can build a car that rolls on wheels or replace the wheels with buoyant components to convert it into a floating boat. This design encourages creativity and critical thinking as they experiment with different configurations.  Features  The toy could include motorized elements for the boat, or a pull-back mechanism for the car. It would come with vibrant, modular parts in various colors, allowing children to easily mix and match different components.</t>
+          <t>turbotide, is an amphibious vehicle with seamless transitions from speeding across land to cutting through water, ensuring nonstop excitement and fun for kids</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>m2m3pt9l86i1l-HMNL-409-2</t>
+          <t>m2ko6asjd367j-HMNL-57-1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>This toy would be an exciting car that turns into a boat when exposed to water. It would allow kids to drive it on land like a normal toy car, but once placed in water (e.g., in a bathtub or pool), it transforms into a boat and floats. The idea is to make the transition between land and water seamless, creating a fun experience for kids who enjoy both car races and water play.</t>
+          <t>AquaCar- This is a car-boat toy that can run on both water and land allowing children to play imaginatily, creating an adventure.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>m2m3pt9l86i1l-HMNL-409-3</t>
+          <t>m2ks7hdrix2yo-AINL-141-3</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>This toy set features a combination of a car race track and a waterway for boats. The excitement comes from racing the car down the track, which finishes in a splash zone, such as a small pool or canal. Once the car reaches the water, it transforms into a boat, allowing it to float and continue the adventure in the water.</t>
+          <t>The Hydro Cruiser 4x4, a toy that combines the land-roving capabilities of a rugged SUV with the aquatic agility of a boat. The Hydro Cruiser boasts an engine-powered mechanism allowing it to navigate both terrains. Its four durable wheels retract upward when it transitions into water mode, activating the buoyant hull and concealed propellers. This transformation is facilitated by a dual-mode remote control that toggles between road and water functions.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>m2m3ykajc3qau-AINL-413-1</t>
+          <t>m2kmrlphygt7l-AINL-29-2</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>I have an idea about designing a children's electric car to be waterproof so that it can continue to travel over bodies of water. For safety, the cabin of the occupant would have to be sealed watertight, including any doors and windows. There would have to be a flotation device available in case of emergencies. All electrical components would have to be waterproof as well.</t>
+          <t>The SpeedRacer Hybrid: A sleek toy that morphs from an Formula 1 car to a speedboat, featuring aerodynamic fins, and a vibrant design for thrilling land and water play adventures.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>m2m3ykajc3qau-AINL-413-2</t>
+          <t>m2kojcoitjb5v-HMNL-65-2</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>I have an idea for a remote controlled vehicle toy that functions as a car on land and a boat on water. To accomplish this, it would have to change seamlessly from car to boat, or vice versa, as the situation demands. Car wheels would have to retract if the vehicle enters water, and any boat motor would have to retract if the vehicle changes back into a car. The entire vehicle would have to be waterproof, especially electrical components. It could also be adorned with LED lights for style. The remote control could be able to switch functions depending on which mode the vehicle was using.</t>
+          <t>A remote-controlled vehicle for a child to play with indoors on carpet and in a bathtub, or outdoors as well on rugged terrain.  It would be designed to convert easily between land and water use.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>m2m3ykajc3qau-AINL-413-3</t>
+          <t>m2kzo3gry4sg7-HMNL-281-4</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>I have an idea for a bathtub toy that looks like a boat and floats. But it also has compartments that can be flooded with water, making the toy less buoyant and causing it to sink. The child playing with the toy can alternate these two modes, so that in floating mode the toy acts as a boat, but in sinking mode, the toy sinks to the bottom of the tub and acts as a car, and the child can pretend to be exploring the ocean bottom.</t>
+          <t>surfboard- a surfboard created from hard foam, that hardens when dry, then you can attach wheels to act as a skateboard.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>m2m4bqtrkswl5-HMNL-417-1</t>
+          <t>m2kmrlphygt7l-AINL-29-1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A car sitting on top of a boat and both are fixed to a level horizontal platform that the child can hydroplane in water by pushing the toy.</t>
+          <t>The Transforming Amphibious Vehicle Toy: Features a dynamic car-to-boat conversion, retractable wheels, and expanding fins. It comes with a floating race track, creating thrilling water-surface racing adventures, enhanced by bright colours and sound effect</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>m2m4bqtrkswl5-HMNL-417-2</t>
+          <t>m2qhkkkebpms4-AINL-517-2</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Using string which attaches the car and boat and can be hung up say from the ceiling. This would be attractive to the child as a visual image and gets its attention and engage the child.</t>
+          <t>Hydroracer A remote-controlled, racing car-boat with adjustable speed, colorful lights and splash resistant design. This will enable thrilling land-to-water competitions among friends.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>m2m4bqtrkswl5-HMNL-417-3</t>
+          <t>m2ktz1cy721fa-HMNL-177-2</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A car and a boat artwork in which virtual reality is used so they appear to move in tandem, and as if they are actually before the child. This combines modern technology and engages the child in it, and attracts attention and novelty.</t>
+          <t>A boat that transports cars. Like the boats that carry storage and materials on the water, except it's only cars and these can be slotted in to storage boxes that are openable on the boat. This could come with little members of staff (toy people) that are placeable next to the storage boxes, and possibly have a crane on the top of each storage box - maybe one crane that moves around the boat to replace the lids on top of them and make it a realistic experience of working on board a storage ship. It's educational and fun, because kids love using construction creatively!</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>m2m4bqtrkswl5-HMNL-417-4</t>
+          <t>m2kvpvsck1x1p-AINL-213-1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A skateboard with many colours in modern design in which a racing car is at the front, and a speedboat at the back- with flashing lights and a horn for the car and a hooter for the boat.</t>
+          <t>introducing Ca-Yat 1.0, an innovative toy that has the features and design of a car but without a tire. this CaYat features a steering, gear , head-light for vision at night, enclosed rooftop, 3 seater at the back and 2 at the front. a dashboard for navigation and operation. it is controlled with remote. when place in water , it can be operated to move around by using the remote to control the direction.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>m2m4mukonj88m-AINL-429-1</t>
+          <t>m2ks7hdrix2yo-AINL-141-2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>The 'Mega Hydro Cruiser' is a large hybrid toy for seamless land-to-water adventures with realistic steering and with safety harnesses</t>
+          <t>The Wave Racer Turbo, a two-in-one adventure toy merging the excitement of racing cars and speedboats. It features a convertible chassis that cleverly morphs from a sleek race car into a high-performance speedboat. The toy has quick-release mechanisms: the wheels fold up into slick pontoons for aquatic fun. In car mode, it zooms over diverse terrain with pull-back motor, while in boat mode, it glides across the water propelled by a wind-up jet propeller.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>m2m4mukonj88m-AINL-429-2</t>
+          <t>m2q90ju84i7q1-HMNL-489-3</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>The 'junior Hydro Adventure Kart' offers land and water adventures for kids, features include safe controls and an adjustable seat-belt</t>
+          <t>Catapult Car-nage. This concept has small catapult set up, the size of a water bottle. The kids can slot in a number of small cars into the catapult mechanism, each with different colours, some having more aerodynamics than other box shaped cars. They hardly weigh anything though to avoid it becoming dangerous. The catapult is pointed at a small ring shaped paddling pool, only small about 0.25 metres in diameter. The ring acts as body of water, filled up easily with water and then a series of again colourful boats are dropped inside to bop along. These also could match the cars styles and themes. The kids then take it in turns to launch the car filled catapult aiming for the body of water, and hopefully hit the boats on top. Points every time they hit them and bonus points if they hit they're matching boat colour with the same car colour.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>m2m4mukonj88m-AINL-429-3</t>
+          <t>m2ks7hdrix2yo-AINL-141-1_duplicate</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>The 'Pocket Aqua Racer' is a compact hybrid tiy that effortlessly transitions between car and boat modes, and fits in a child backpack</t>
+          <t>An Aqua Cruiser, a hybrid toy that combines cars and boats into one. It's shaped like a sports car, features retractable wheels and buoyant, watertight bodywork that transforms into a high-speed motorboat. Children can steer the Aqua Cruiser on land with its smooth wheels and remote control, then engage the water mode at the touch of a button.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>m2m4mukonj88m-AINL-429-4</t>
+          <t>m2kwp624e0mtv-HMNL-225-1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>the above designs could be made specifically for boys and girls , and there could be an adult one too.</t>
+          <t>The WaterMobile toy combines the look of a standard car with the buoyancy of a boat. The is achieved by having special flotation devices under the car and within the wheels themselves. Instead of the wheels being positioned like a standard car, they are instead rotated outward so that the wheels are laying flat against the water. The WaterCraft may be driven normally and manually converted to it's boat mode when needed.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>m2m4vz3rhjta6-HMNL-433-1</t>
+          <t>m2ktotg7kkykf-AINL-173-2</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>I would combine a full size car and a full size boat in a playground to make a fantasy vehicle (fixed to the ground) that children can safely climb on and play in. It would have, for example, a moving steering wheel and buttons to press, so children could pretend they were driving, sailing or even flying in this magical machine.</t>
+          <t>A maneuverable race car with a detachable boat trailer that children can enjoy towing until it hits water. After it hits water the wheels function like paddles.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>m2m4vz3rhjta6-HMNL-433-2</t>
+          <t>m2m0tpi4tmzcd-HMNL-345-3</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>I would pull apart the boat and the car and reserve whatever pieces were safe for children to play with so they could repurpose them creatively. Research suggests that when children are allowed to play with tools like wood, hammer and nails they thrive. It's good for their development, builds problem-solving skills and encourages creativity. The toy I would make would be the equivalent of a box of Lego or wooden blocks, but instead it would be a sort of kit containing real materials from a car and a boat. Children could be allowed to make anything they wanted from this kit, from playhouses to works of art.</t>
+          <t>A pull back car that has the features of a boat.  Whether it is a sailboat, speed boat or even a cruise ship.  The body of a boat with the durability needed to survive children of a young age.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>m2m4vz3rhjta6-HMNL-433-3</t>
+          <t>m2m5yr7dwffsa-AINL-461-1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>I'd remove the wheels from the car and use elements from both the car and the boat to create a go-cart that's safe for small children to play in. Children used to make these from old soap boxes and spare wheels, but it's fallen out of fashion, probably due to safety concerns and the ability to purchase ready made bicycles and tricycles. But I think a return to the concept of repurposing components to make go-carts would be beneficial for children and could be done safely.</t>
+          <t>AI suggests an AquaQuest Transformer, which is essentially a transforming toy that can be used in both car mode (featuring rugged wheels and a robust chassis, suitable for both indoor and outdoor play) and boat mode (with retractable wheels and unfolding buoyant side panels). It is equipped with mini-paddle wheels for water propulsion.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>m2m4xtd7wizdm-AINL-437-1</t>
+          <t>m2q96c6466ggf-HMNL-497-2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Introducing the Aqua-Racer X, a versatile toy that seamlessly combines a car and a boat into an exciting, dual-function experience. The Aqua-Racer X features a sleek, aerodynamic design with a robust, water-resistant shell. On land, the toy functions as a high-speed race car with adjustable suspension and LED headlights. Once placed in water, a simple transformation system deploys hidden propellers and floatation wings, shifting it into a speedboat mode. The Aqua-Racer X is remote-controlled, providing intuitive control transitions between land and water. The toy includes vibrant, interchangeable decals for customization, encouraging creativity and repeated play for endless adventures.</t>
+          <t>An educational toy to introduce children to road safety and water safety. One side of the toy is a car, with different parts that can be pulled out, flicked, twisted, all presenting the child with different information or warnings about safely driving and safely being a pedestrian. The other side of the toy is a boat, with the same interactive parts that provide information and warnings about water safety</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>m2m4xtd7wizdm-AINL-437-2</t>
+          <t>m2q9oiuzxkoc1-HMNL-505-2</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Introducing the Wave Rider Cruiser, a dynamic and playful toy that cleverly merges a car and boat, designed to stimulate imaginative play. This toy features a rugged, all-terrain vehicle design with detachable buoyant wheels that transform into fun paddle systems on water. As a car, it boasts vibrant colours and shock-absorbing capabilities for thrilling off-road adventures. With a simple twist mechanism, the wheels switch to paddles, and the toy becomes a buoyant boat, capable of smoothly navigating any tub or pool, and perfect for bath time! The Wave Rider Cruiser includes a mini adventure map and themed stickers, encouraging storytelling and enhancing playtime scenarios. The Wave Rider Cruiser also includes automatic LED lights that change colours and turn while the vehicle is a car and off while the vehicle is a boat in the water.</t>
+          <t>hover wheels instead of traditional wheels the car has detachable hover wheels that can snap on to make it float in water</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>m2m4xtd7wizdm-AINL-437-3</t>
+          <t>m2m3pt9l86i1l-HMNL-409-1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Introducing the TurboSplash Duo, a captivating toy that seamlessly integrates car and boat functionalities into one. This design features an elegant convertible chassis with retractable aquatic elements. As a robust car, it sports a full-suspension system and colourful racing stripes for land escapades. Transitioning to water mode is a breeze with a pull-and-lock mechanism that extends floatable pontoons and sleek propellers. The turboSplash includes an automatic lock function which turns on when water mode is activated, and allows the doors of the vehicle to lock, ensuring that any dolls or items in the vehicle do not get wet when placed in the water. The TurboSplash Duo uses a rechargeable power system, allowing for extended journeys on land and water. Equipped with glow-in-the-dark components, it offers a sensory experience as children navigate both land and aquatic terrains, sparking limitless creativity and play.</t>
+          <t>Design A toy with interchangeable parts that let children construct either a car or a boat, with the flexibility to combine features of both.  Play Concept Kids can build a car that rolls on wheels or replace the wheels with buoyant components to convert it into a floating boat. This design encourages creativity and critical thinking as they experiment with different configurations.  Features  The toy could include motorized elements for the boat, or a pull-back mechanism for the car. It would come with vibrant, modular parts in various colors, allowing children to easily mix and match different components.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>m2m4xtd7wizdm-AINL-437-4</t>
+          <t>m2kzcscun7ajc-HMNL-273-4</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Introducing the Barbie AquaDream Cruiser, a glamorous blend of car and boat, capturing Barbie's signature style. This enchanting toy vehicle personifies Barbie's flair, with a shimmery pink exterior and customizable decals inspired by her world. As a stylish convertible on land, it features plush seating and a built-in vanity mirror. With a simple flip mechanism, the AquaDream Cruiser transforms into a chic boat, complete with rotatable propellers and detachable palm tree décor for that vacation vibe. The set comes with a mini Barbie figurine and themed accessories like sunglasses and a beach umbrella, offering endless adventure possibilities both on land and in water.</t>
+          <t>if the car is as of the same size as the boat, it should have 4 doors that can be opened and closed as well</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>m2m53l3x1rdph-HMNL-441-1</t>
+          <t>ATTENTION_CHECK_4_NL</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>amphibious boat car. means of transport viable on land and water as well as on or under water. very adventurous</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>m2m53l3x1rdph-HMNL-441-2</t>
+          <t>m2kxwokake7k9-HMNL-241-1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>works on both land and water. good for those with water phobia or poor swimmers. also works perfectly under water</t>
+          <t>Please design an amphibious toy with no motor than can transverse between land and see. It would be cool if it was ridable by children as well</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>m2m53l3x1rdph-HMNL-441-3</t>
+          <t>m2rligqcb9g87-AINL-525-1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>very innovating to keep children bust while outdoor. helps kids be busy with outdoor activities and water sport. good for body heathy</t>
+          <t>The aquacruiser is a toy that has wheels for onb land but also has the ability to transform into a boat by folding the wheels in and pulling out a propellor.  The car shape is aero and aqua dynamic to enable a smooth transition from land to water.  the toy is made from robust plastic and is colourful but has decals that show that it also has spped on both land and water.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>m2m5gra0fqq9b-AINL-445-1</t>
+          <t>m2m5rz0df8x4h-HMNL-457-1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TurbiWave cruiser is used as dual function toy where it is a speed boat and a racing car combined together.</t>
+          <t>This toy will be a car on the bottom side and an inverted boat on the topside. Once the car is driven into deep enough water, it will flip over. The boat side of the toy will no funtion properly and the car will be inverted on the top but covered with a small dome to hide the undercarriage.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>m2m5gra0fqq9b-AINL-445-2</t>
+          <t>m2ku94iyop9ey-AINL-181-1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>HydroDrift Explorer is a designed with adventure in mind which is fun to explore it is a robust toy that navigates through water</t>
+          <t>SplashCruiser 4 x 4 is a toy that is a rugged off-road vehicle with the ability to drive in the water</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>m2m5gra0fqq9b-AINL-445-3</t>
+          <t>m2krgvphzcdte-AINL-125-2</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SeaSpeed Transformer is a convertible playset which is used to transform into a slick sports car to a dynamic boat</t>
+          <t>We are developed a toy car with sleek, aerodynamic shape with a vibrant color scheme featuring neon accents, appealing to children's sense of adventure.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>m2m5r0ph3lbut-AINL-453-1</t>
+          <t>m2m6indcqm4yr-AINL-469-2</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Aqua cruise adventure boat for children aged 3 to 6. It features vibrant colours and switches from boat to car with functional wheels and a hidden propeller to be used when the wheels are retracted.</t>
+          <t>Navigo Amphibious Vehicle - It is a rugged off road car and it will be able to transform into a powerful motor boat. it will have parts that can snap on or off to create either the motor boat or the off road vehicle.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>m2m5r0ph3lbut-AINL-453-2</t>
+          <t>ATTENTION_CHECK_6_NL</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Galactic voyager amphibious explorer is futuristic for children aged 7 to 10. It combines space exploration with earthbound versatility. In car mode, its retractable landing ear doubles as high tech tires and transforming into boat mode, it features a water cannon.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>m2m5r0ph3lbut-AINL-453-3</t>
+          <t>m2m3ykajc3qau-AINL-413-3</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>The EcoWave Hybrid Cruiser is a sustainable car-boat. Eco friendly, crafted from biodegradable and plant based plastics, it is brightly coloured. Using friction,in car form it promotes battery waste awareness and uses a hand crank to power boat mode. A fun but educational booklet accompanies the toy to encourage environmental stewardship.</t>
+          <t>I have an idea for a bathtub toy that looks like a boat and floats. But it also has compartments that can be flooded with water, making the toy less buoyant and causing it to sink. The child playing with the toy can alternate these two modes, so that in floating mode the toy acts as a boat, but in sinking mode, the toy sinks to the bottom of the tub and acts as a car, and the child can pretend to be exploring the ocean bottom.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>m2m5rz0df8x4h-HMNL-457-1</t>
+          <t>m2ks1569zvrig-HMNL-137-2</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>This toy will be a car on the bottom side and an inverted boat on the topside. Once the car is driven into deep enough water, it will flip over. The boat side of the toy will no funtion properly and the car will be inverted on the top but covered with a small dome to hide the undercarriage.</t>
+          <t>I would consider designing a car that is shaped like a boat, such that it stays afloat when in water and uses wheels while on land. I would design a propeller engine at the rear base of the car.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>m2m5rz0df8x4h-HMNL-457-2</t>
+          <t>m2l16144e7ao4-HMNL-321-1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>The bumper of the car will house a flexible hull that is able to stretch down the sides of the car thus turning it into a boat.</t>
+          <t>A playset featuring an ambitious vehicle that explores land and water environments. Features, articulated vehicles with movable parts example propellers</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>m2m5rz0df8x4h-HMNL-457-3</t>
+          <t>m2q9tgdi3y3u4-HMNL-513-3</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>This car will be able to split down the middle with the sides of the car extending outward to reveal a solid boat hull down the center.</t>
+          <t>My third idea would be taking my second kit car boat concept to a new level, perhaps at a more advanced level of children with the aid of engineering adults. This would provide the basic components of the car and boat matching but allow the child to be more creative in the design. I would also ensure that part of the model design would encorporate a basic form of CAD software that would aid learning combined with AI technology that would assist the child in creating the final design. It could then be transferred onto a 3D printing software and printers this giving a child total control over the design but also be an educational tool in helping to solve problems that will inevitiably arise. This would then assist children choose careers for their future.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>m2m5yr7dwffsa-AINL-461-1</t>
+          <t>m2ksjrj6s2pqd-AINL-149-3</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AI suggests an AquaQuest Transformer, which is essentially a transforming toy that can be used in both car mode (featuring rugged wheels and a robust chassis, suitable for both indoor and outdoor play) and boat mode (with retractable wheels and unfolding buoyant side panels). It is equipped with mini-paddle wheels for water propulsion.</t>
+          <t>WhizWave TurboCraft- car and boat hybrid that uses a magnetic snap technology to toggle between land and water terrains.  Has both rugged wheels and a buoyant hull.  Includes mini passengers.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>m2m5yr7dwffsa-AINL-461-2</t>
+          <t>m2kp0v8lsrt92-AINL-77-3</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Going one step further, the TripleTerrain Explorer melds a car, boat, and train toy into one. It's a toy car that has detachable tracks, so that the car can be used like a toy train. It also can transform into a buoyant boat featuring side pontoons that provide stability on the water. The flip up paddles drive it forward in aquatic play. For train mode, the car's wheels fit seamlessly onto included tracks that can be configured in multiple layouts, sparking hours of imaginative railway adventures.</t>
+          <t>Introducing the urbancruiser patrol wagon, the first land and sea vehicle which allows 5-11 year olds to relive their favourite TV show, the wire. Whether you have a little mcnutty who wants to cruise the streets of west baltimore collecting vials and chasing down stringer bell, or your child wants to take a quite frankly baffling journey down to the docks which really confused fans by following an almost entirely different narrative, to keep an eye on the shenanhigans of the dockworkers union, the urbancruiser patrol wagon has you covered.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>m2m5yr7dwffsa-AINL-461-3</t>
+          <t>m2kvpvsck1x1p-AINL-213-3</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>The WaveRider Explorer is an adventure companion for children ages 5-11. It combines the thrill of a rechargeable ride-on car with the safety of a beach-friendly floating boat. On sand, the WaveRider effortlessly navigates thanks to its robust, all-terrain wheels and intuitive controls... when adventure shifts to the shore, a quick transformation turns the car into a buoyant mini-boat, perfect for floating along gentle beach waves. Integrated safety features such as rollover detection, a cloth-padded wheel that can be unrolled for use as a sail, and an inflatable hull make this an incredible toy. Parental supervision encouraged; this ride-on electric car and semi-electric mini-boat are not substitutes for proper safety flotation devices. The boat is weighted to stay upright in the water and upright on land.</t>
+          <t>introducing a Cayat 2.0.This features a car with tire and on the roof is a boat built on top. the down part will be a car and on the roof, a boat is built. this gives it an open view on top to look around and an enclose space at the down part as a car. it is controlled with a remote and a track line. this toy can be coupled and uncoupled. the boat can be detached from the roof and used separately to play in water. the remote will be wireless and can operate both car and boat when detached</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>m2m6indcqm4yr-AINL-469-1</t>
+          <t>m2kqp7fjodp83-AINL-109-2</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Aqua Racer Adventure Set - A transformable toy featuring a sports car that turns into a speed boat. Children will be able to change the tires into propellers. It will have small led lights and be able to produce car or boat engine sounds.</t>
+          <t>A race between land and sea. A friendly competition where kids could see which transportation method can make it to the finish line first!</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>m2m6indcqm4yr-AINL-469-2</t>
+          <t>m2m4bqtrkswl5-HMNL-417-4</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Navigo Amphibious Vehicle - It is a rugged off road car and it will be able to transform into a powerful motor boat. it will have parts that can snap on or off to create either the motor boat or the off road vehicle.</t>
+          <t>A skateboard with many colours in modern design in which a racing car is at the front, and a speedboat at the back- with flashing lights and a horn for the car and a hooter for the boat.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>m2m6indcqm4yr-AINL-469-3</t>
+          <t>m2m2hcth2ze2x-HMNL-385-3</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>An underwater explorer vehicle. It starts out as a boat and once submerged, wheels can come out from the bottom where it can then roll on the ground underwater.</t>
+          <t>The final version would be a construction kit using which the child could make either a boat, a car or a vehicle that combined the two in one form. This kit would include various types of motor, wheels and even tracks. It might have instructions as to how to build various classic amphibious vehicles such as the DUKW and VW Schwimmwagen from WWII - these are essentially a combination of car and boat!</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>m2m7pi4hkjr5x-AINL-477-1</t>
+          <t>m2kos8of3weda-HMNL-73-2</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Mariners drive - the boat that turns into a car when it reaches land.  Can be purchased as a two or four seater for all of your dolls.  The perfect beach toy, will perform as a boat in the sea and become a car on the sand.</t>
+          <t>A remote control car and boat. The car can be driven by the child and controled from a distance. The wheels can then be folded into the car and it turns into a boat and can be sailed by remote control on a lake or pond. The car/boat can fit in figures or toys from other collections.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>m2m7pi4hkjr5x-AINL-477-2</t>
+          <t>m2m2fg522rw8f-AINL-381-2_duplicate</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>adventura petite is great for imaginative play - perfect for smaller hands and great for transporting.  Small gadgets within the adventure petit allow fun imaginative play and easy packing.</t>
+          <t>the commando amphibious defender. a radio controlled toy that transforms seamlessly from land to water. It can be used outdoors in large bodies of water and has gun turrets that can fire projectiles at other boats and people. Targets come with the toy that allow you to have competitions with other toy owners</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>m2m7pi4hkjr5x-AINL-477-3</t>
+          <t>m2l1gekcw4n5t-AINL-325-1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A boat that transforms into a car.  Only one toy needed instead of 2 but double the fun.  Will fit most sized action figures in to both vehicles. More fun and less space needed to pack it</t>
+          <t>Aqua Terrain Transformer is a wind-up vehicle that can transition between a robust car and a sleek boat. this can function well both on land and water.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>m2q6ytxmptzbv-HMNL-481-1</t>
+          <t>m2krgvphzcdte-AINL-125-1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>a floatable toy that looks like a boat but has working wheels on the bottom, so the toy can function as a boat during bath time and also outside of the bath on any other surface</t>
+          <t>Together with AI we want to create a remote controlled named AquaCruise. The design will be a hybrid to car.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>m2q6ytxmptzbv-HMNL-481-2</t>
+          <t>m2kpk3zdod0iz-AINL-85-1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>a car big enough for children to sit in, but the wheels don't work, and instead the car is propelled by sails like on a boat</t>
+          <t>A car in bright primary colours, which can be easily transformed into a boat. The toy comes with accessories, which can be added to, to make play at the heart of this toy. Accessories such as, people and spare wheels and lots of parts which can be added and taken away from the toy.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>m2q6ytxmptzbv-HMNL-481-3</t>
+          <t>m2m4xtd7wizdm-AINL-437-4</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>a car big enough for them to sit in, that has a propeller on the back, rather than working wheels</t>
+          <t>Introducing the Barbie AquaDream Cruiser, a glamorous blend of car and boat, capturing Barbie's signature style. This enchanting toy vehicle personifies Barbie's flair, with a shimmery pink exterior and customizable decals inspired by her world. As a stylish convertible on land, it features plush seating and a built-in vanity mirror. With a simple flip mechanism, the AquaDream Cruiser transforms into a chic boat, complete with rotatable propellers and detachable palm tree décor for that vacation vibe. The set comes with a mini Barbie figurine and themed accessories like sunglasses and a beach umbrella, offering endless adventure possibilities both on land and in water.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>m2q8wbm94q90b-AINL-485-1</t>
+          <t>m2kxwokake7k9-HMNL-241-3</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>a hybrid vehicle which can be used as both a car and boat. it is big enough for the child to sit in and can easily be converted between a car on land and a boat on water using a retracting wheel system and hidden propellers.</t>
+          <t>Please design an ugly monstous car and boat hybrid toy, with the steering wheel shaped like on those old pirate wheels and make it have a sail and oars and stuff, but also make it have wheels somehow and rearview mirros</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>m2q8wbm94q90b-AINL-485-2</t>
+          <t>m2kz7crup2pz5-AINL-269-3</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>an explorative toy which can be used on land and water, with features that change depending on the terrain. it has an integrated scanning feature which scans the land or water it is being played on and provides education facts for the child, such as which animals are likely to be in the water or on the terrain.</t>
+          <t>Bubble arch rider- A transparent polycarbonate vehicle filled with water resistant mechanisms. On land it's an inflated arch rolling like a giant hoop, it water it serves aa a boyant, see through sumbarine</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>m2q8wbm94q90b-AINL-485-3</t>
+          <t>m2m386s728hlb-AINL-397-1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>a modular system where children can build their own cityscapes which float on water for use in the bath or swimming pools. the kit features different vehicles which can be used in the water or on the cityscapes to recreate their own worlds.</t>
+          <t>'Blue racer 3000' bringing the fun of boats and cars together, suitable for children and 5 to 11. This thrilling toy is perfect for young thrill seekers. Featuring a sporty car body, with a floatable and strong base. With large bright wheels. The toy can be a mini car on land, with the wheels retracting inside the base to transform in to a mini speedboat for use in water. Included is a child friendly remote control, allowing children to steer on land and in waters. Non toxic and durable materials makes it safe and easier for young children to navigate.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>m2q90ju84i7q1-HMNL-489-1</t>
+          <t>m2kzsg6e23cpq-AINL-285-3</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>The HydroTruck! A functional toy, a two in one. It starts out as a car, that can drive around with big chunky wheels like a small monster truck. When arriving at a body of water you can press the big red button inside the car. It extends the front of the car outwards, whilst flipping the wheels from vertical to horizontal. It then allows the toy to bop about on the water for play. It could even have a horn inside the car that changes to a barge style fog horn when in boat mode. When heading back to land, press the big red button again to flip the wheels back upright, and shorten the wheel base ready to drive. Its great for bath time for kids, as well as zooming around the living room.</t>
+          <t>Introducing the 'High seas adventure ship', a captivating toy for children aged 5-11 designed to spark imagination and exploration. This miniaturized sailboat features a colorful, removable canopy sail and a durable, child-safe plastic hull that float effortlessly.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>m2q90ju84i7q1-HMNL-489-2</t>
+          <t>m2kujxnx3bdrf-AINL-189-1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>The Car-Go Carrier. A unique toy that resembles a small cargo style carrier ship, with loads of tiny cargo crates all in different colours spread across the ship. The boats designed to float about on the water for small kids during bath time. The cargo crates are openable, with small cars in a few of them as well as other random items. The idea is that the kids can have fun opening up the cargo boxes and mix &amp; matching whats inside. They can also cause chaos by throwing out all the cars and the like to either the deck of ship itself or the depths of the water.</t>
+          <t>Introducing 'Turbo Tides', the ultimate land and sea adventure toy for kids aged 5-11! This dynamic transformer car flips into a buoyant boat, sparking endless playtime possibilities. On land, it zooms around as 'Racer Rex', its fast and frenetic personality, boasting wacky phrases like Let's zoom and vroom!. With a quick switch, it becomes 'Bobby Buoyant', the boat who gently encourages with a slow, happy tone, saying things like Let's drift and dream!'. Both personalities feature interaction through voice recognition, responding to the child's commands and questions, immersing them in thrilling, imaginative journeys across diverse terrains.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>m2q90ju84i7q1-HMNL-489-3</t>
+          <t>m2l0fv7e9rgdt-AINL-301-2</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Catapult Car-nage. This concept has small catapult set up, the size of a water bottle. The kids can slot in a number of small cars into the catapult mechanism, each with different colours, some having more aerodynamics than other box shaped cars. They hardly weigh anything though to avoid it becoming dangerous. The catapult is pointed at a small ring shaped paddling pool, only small about 0.25 metres in diameter. The ring acts as body of water, filled up easily with water and then a series of again colourful boats are dropped inside to bop along. These also could match the cars styles and themes. The kids then take it in turns to launch the car filled catapult aiming for the body of water, and hopefully hit the boats on top. Points every time they hit them and bonus points if they hit they're matching boat colour with the same car colour.</t>
+          <t>A two-part playset, with a toy car that docks into floating garage. the garage resembles a floating docks and offers storage and lauching capabilities.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>m2q92a1yay1st-AINL-493-1</t>
+          <t>ATTENTION_CHECK_3_NL</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>car and boat … no, a bar and coat. Keep your child warm and toasty while making sure they get their vit c drinks at the kids bar.</t>
+          <t>Please select "Not at all" for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>m2q92a1yay1st-AINL-493-2</t>
+          <t>m2ks1569zvrig-HMNL-137-3</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Have hours of fun driving cap’n birdseye around in a car while his crew mutiny and sail the boat to a faraway land where haribos are free! They may return at some poiint to share the swag … but there’s no guarantee. Also, the cap’n will try to escape to grill some fish fingers for his tea. Hours of fishy tooth rotting fun! aaaaarrrrrr!</t>
+          <t>I would design a car with movable parts, the wheels move inwards and the space left is covered so that the car can float. Also, the engine should work both on land and in water.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>m2q92a1yay1st-AINL-493-3</t>
+          <t>m2m4xtd7wizdm-AINL-437-1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>a small car shoe and a small boat shoe. versatility. for going thru puddles on the school run. if it’s dry, then the car will help your child glide through the school gates … if it’s nasty weather then the boat will help your offspring avoid messing up at least one of their lovely shiny shoes! (Good balance required at all times. Not very reliable in icy conditions.)</t>
+          <t>Introducing the Aqua-Racer X, a versatile toy that seamlessly combines a car and a boat into an exciting, dual-function experience. The Aqua-Racer X features a sleek, aerodynamic design with a robust, water-resistant shell. On land, the toy functions as a high-speed race car with adjustable suspension and LED headlights. Once placed in water, a simple transformation system deploys hidden propellers and floatation wings, shifting it into a speedboat mode. The Aqua-Racer X is remote-controlled, providing intuitive control transitions between land and water. The toy includes vibrant, interchangeable decals for customization, encouraging creativity and repeated play for endless adventures.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>m2q92a1yay1st-AINL-493-4</t>
+          <t>m2km9dmge4d18-HMNL-9-3</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>play with your toy car (used by insects) whilst floating in your boat for bathtime fun. play with your toy boat (insects only) whilst taking a leisurely drive around toys r us … looking for something better to play with (not difficult).</t>
+          <t>From river to road - a small car/boat  with a detachable sail like a boat and bright colours to appeal to kids  hinges to retract the tires and transform the car into a boat</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>m2q96c6466ggf-HMNL-497-1</t>
+          <t>m2q8wbm94q90b-AINL-485-1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Remote controlled duck boat that can be driven on land and can seamlessly be driven into the water and become a functioning boat. It'll mimic the functional design of duck-boats in Boston and the sleek design of James Bond's car from The Spy Who Loved Me</t>
+          <t>a hybrid vehicle which can be used as both a car and boat. it is big enough for the child to sit in and can easily be converted between a car on land and a boat on water using a retracting wheel system and hidden propellers.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>m2q96c6466ggf-HMNL-497-2</t>
+          <t>m2kqe4wa07t8v-HMNL-105-2</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>An educational toy to introduce children to road safety and water safety. One side of the toy is a car, with different parts that can be pulled out, flicked, twisted, all presenting the child with different information or warnings about safely driving and safely being a pedestrian. The other side of the toy is a boat, with the same interactive parts that provide information and warnings about water safety</t>
+          <t>Car &amp; Boat Lego: This is a block of lego that can only be used to build cars and boats. It sets targets for the kid to either create a boat of a car.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>m2q96c6466ggf-HMNL-497-3</t>
+          <t>m2m2fg522rw8f-AINL-381-2</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A toy for the beach. The top is shaped like a car, mostly intended to be seen and used to mimic driving around. The underneath is hollow and when placed in the water will float and look like a boat, but can also be used to scoop sand, to help build a city or roadmap out of sand, so that the toy can be turned over again and be driving around</t>
+          <t>the commando amphibious defender. a radio controlled toy that transforms seamlessly from land to water. It can be used outdoors in large bodies of water and has gun turrets that can fire projectiles at other boats and people. Targets come with the toy that allow you to have competitions with other toy owners</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>m2q9a5waka67u-AINL-501-1</t>
+          <t>m2kq1v3jpwy9d-HMNL-97-1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>AquaRacer Turbo Splash, a deluxe amphibious toy vehicle that seamlessly transitions between land and water play crafted with high-quality durable materials.</t>
+          <t>A lightweight toy car made with buoyant material which can also be used as an amphibious car that can float on water inside a bathtub.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>m2q9a5waka67u-AINL-501-2</t>
+          <t>m2ktz1cy721fa-HMNL-177-2_duplicate</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>WaveRider Explorer, a multi-functional hybrid vehicle for young adventurers. The toy is a vibrant dual-function machine with oversized soft rubber wheels and a sleek, detachable hull for water excursions.</t>
+          <t>A boat that transports cars. Like the boats that carry storage and materials on the water, except it's only cars and these can be slotted in to storage boxes that are openable on the boat. This could come with little members of staff (toy people) that are placeable next to the storage boxes, and possibly have a crane on the top of each storage box - maybe one crane that moves around the boat to replace the lids on top of them and make it a realistic experience of working on board a storage ship. It's educational and fun, because kids love using construction creatively!</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>m2q9a5waka67u-AINL-501-3</t>
+          <t>m2ro984jqrytb-HMNL-537-1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TerraSplash Expedition Pod, a versatile exploration vehicle that functions on both land and water. It mimics a futuristic rover with a transparent, domed driver's cabin.</t>
+          <t>A Car-Boat - a simple amphibious vehicle, which has four wheels like a car, but a boat-shaped hull. When the car hits the water, the wheels sprout fin-like devices which can be used to propel it through the water. It's battery powered, and has a mobile phone app to allow remote control of the device.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>m2q9oiuzxkoc1-HMNL-505-1</t>
+          <t>m2kvhaj0c21zw-AINL-205-3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>amphibious car make the toy durable and waterproof with wheels that can and retract or become paddles when in water</t>
+          <t>Introducing the Voyager Duo, a versatile toy for children aged 5-11 that combines car and boat dynamics. This amphibious vehicle features transformative components for seamless land to water play. Kids can navigate diverse terrains and watch as it automatically turns into a boat upon water contact. The playset includes a dual purpose mat with roads and waterways, encouraging creative route design. Enhance play with a companion app that brings stories to life through interactive missions. The Voyager Duo offers and engaging, educational experience, merging engineering with imaginative exploration for endless adventures.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>m2q9oiuzxkoc1-HMNL-505-2</t>
+          <t>m2kwcueqll85n-AINL-221-3</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>hover wheels instead of traditional wheels the car has detachable hover wheels that can snap on to make it float in water</t>
+          <t>the care must be made of two different colors, featuring, red and green, the interior will be red and the exterior will be green</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>m2q9oiuzxkoc1-HMNL-505-3</t>
+          <t>m2kzsg6e23cpq-AINL-285-2</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>interchangeable parts include parts like big rugged wheels for off read land adventures and detachable pontoons for water play ..</t>
+          <t>Introducing the 'Eco racer'. This innovatively designed toy car encourages environmental awareness among children, the eco racer is solar powered, featuring a compact photovoltaic panel on its roof that energizes a small, quite engine.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>m2q9tgdi3y3u4-HMNL-513-1</t>
+          <t>m2l1m6mrcga4t-HMNL-329-3</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>My first idea would be to make a toy car for a child but incorporate floats into the design whereby if the child presses a button the toy car transforms into a boat that would be suitable for a shallow pond. The design would be every little boys dream and possibly take on the initial shape of a cool sports car and transform into a speedboat.</t>
+          <t>My third toy which is a twist on a pirates game. You would need to loot the cars and boats . On each vehicle there are hidden chets and the children would need to deconstruct the cars and break them apart, however they would be complex and could not be broken with force rather through intelligence such as memorising codes to input to unlock locks and solving puzzles.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>m2q9tgdi3y3u4-HMNL-513-2</t>
+          <t>m2kstaz2blxwu-AINL-157-1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>My second idea would be more in the form of a kit as an educational toy for both boys and girls, but also for adults and parents to have an input into also. It would take on the form of an old kit car type vehicle but for children to make and build themselves with adult help and supervison; creating budding engineers for the future. There would be an emphasis on both engineering and marine design in order to build something that wouod be fit for a road or path and something that would also be capable of driving directly from a road into the water and not leaking. Perhaps the idea could build on renewable technologies such as solar and battery power.</t>
+          <t>Reinforced buoyancy: Boats should be made of light material. The boat should be made with corrosive free material. Stable design</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>m2q9tgdi3y3u4-HMNL-513-3</t>
+          <t>m2kkqo5zi6gmq-HMNL-1-1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>My third idea would be taking my second kit car boat concept to a new level, perhaps at a more advanced level of children with the aid of engineering adults. This would provide the basic components of the car and boat matching but allow the child to be more creative in the design. I would also ensure that part of the model design would encorporate a basic form of CAD software that would aid learning combined with AI technology that would assist the child in creating the final design. It could then be transferred onto a 3D printing software and printers this giving a child total control over the design but also be an educational tool in helping to solve problems that will inevitiably arise. This would then assist children choose careers for their future.</t>
+          <t>A transformer toy which can be manipulated to be a car or a boat. Starting as a car, the wheels can be rotated inwards, and the sides of the car pushed in to create a boat. The opposite can be done to manipulate the boat and turn it back into a car.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>m2qhkkkebpms4-AINL-517-1</t>
+          <t>m2kq1v3jpwy9d-HMNL-97-2</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>The Aquaspeedo This is a transforming boat-car with retractable wheels and a propeller, allowing kids to seamlessly transition from water to land thereby building imaginative storytelling.</t>
+          <t>A building block toy similar to Lego which can be built into different vehicles including a car and a boat.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>m2qhkkkebpms4-AINL-517-2</t>
+          <t>m2kqp7fjodp83-AINL-109-3</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Hydroracer A remote-controlled, racing car-boat with adjustable speed, colorful lights and splash resistant design. This will enable thrilling land-to-water competitions among friends.</t>
+          <t>Combine these items to make a transformer robot! Dismantle pieces of the car and boat, then reformat them strategically to create a cool robot.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>m2qhkkkebpms4-AINL-517-3</t>
+          <t>m2q92a1yay1st-AINL-493-1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Surf-turf explorer Magnetic car-boat set with interchangeable wheels, a propeller and colorful tiles. Built for exciting land-to-sea exploration adventures. and more.</t>
+          <t>car and boat … no, a bar and coat. Keep your child warm and toasty while making sure they get their vit c drinks at the kids bar.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>m2rlegtw8or2a-HMNL-521-1</t>
+          <t>m2m0sfqrktntr-AINL-341-1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>I would make a hover-car that would have wheels that could retract and then float on water. This could then be remote-controlled.</t>
+          <t>A waterproof car with retractable wheels and propellers. Used as a car on land and seamlessly converts to a boat in water. Remote controlled.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>m2rlegtw8or2a-HMNL-521-2</t>
+          <t>m2kojcoitjb5v-HMNL-65-1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>I would make a toy battleship that could store various other vehicles including amphibious landing crafts. These vehicles could then be released from the ship.</t>
+          <t>A Lego like construction set that allows a child to put together an amphibious car that can convert from a boat to a car in minutes using different parts and it would have a few different designs to choose from.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>m2rlegtw8or2a-HMNL-521-3</t>
+          <t>m2q9a5waka67u-AINL-501-3</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>I would make a toy ferry boat that is designed to store various toy cars. This could be used to transport cars across water.</t>
+          <t>TerraSplash Expedition Pod, a versatile exploration vehicle that functions on both land and water. It mimics a futuristic rover with a transparent, domed driver's cabin.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>m2rligqcb9g87-AINL-525-1</t>
+          <t>m2m5yr7dwffsa-AINL-461-3_duplicate</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>The aquacruiser is a toy that has wheels for onb land but also has the ability to transform into a boat by folding the wheels in and pulling out a propellor.  The car shape is aero and aqua dynamic to enable a smooth transition from land to water.  the toy is made from robust plastic and is colourful but has decals that show that it also has spped on both land and water.</t>
+          <t>The WaveRider Explorer is an adventure companion for children ages 5-11. It combines the thrill of a rechargeable ride-on car with the safety of a beach-friendly floating boat. On sand, the WaveRider effortlessly navigates thanks to its robust, all-terrain wheels and intuitive controls... when adventure shifts to the shore, a quick transformation turns the car into a buoyant mini-boat, perfect for floating along gentle beach waves. Integrated safety features such as rollover detection, a cloth-padded wheel that can be unrolled for use as a sail, and an inflatable hull make this an incredible toy. Parental supervision encouraged; this ride-on electric car and semi-electric mini-boat are not substitutes for proper safety flotation devices. The boat is weighted to stay upright in the water and upright on land.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>m2rligqcb9g87-AINL-525-2</t>
+          <t>m2rnvrfp4i6dw-AINL-533-1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>the Amphicar is a cross between a boat and a car and is made of plastic and has a built in buoyancy.  There is also a sealed battery compartment and as well as an on/off switch there is also a switch that allows transition for the motor from driving the road wheels to driving a propeller.  The toy comes with accessories that allow the user to customise the toy.</t>
+          <t>Introduction the AeroMariner Quest Ship, a unique toy that seamlessly integrates the elements of a car, a boat and even a flying vehicle for an immersive multi terrain adventure. Its construction incorporates durable, lightweight materials such as carbon fibre and waterproof polymers, ensuring longevity. With its embedded smart sensors, users can trigger interactive AR adventures and missions which is accessible via an app.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>m2rligqcb9g87-AINL-525-3</t>
+          <t>m2ro984jqrytb-HMNL-537-3</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>The speedster is a toy that converts from a dragster/formula 1 car into a speedboad at the twist of a dial.  The dial retracts the wheels and deploys side tanks to give extra buoyancy.  the wheels are rubber faced to give extra traction on the road surfaces and the sreamlined shape of a dragster/formula 1 car easily transforms into the streamlined shape of a racing speedboat.</t>
+          <t>A transformer-like toy which in one form is a car, but through twisting and reconfiguring the toy, it can transform into a boat.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>m2rnv1hgviv0s-HMNL-529-1</t>
+          <t>m2kujxnx3bdrf-AINL-189-3</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Simple amphibious vehicle that can drive on roads and also float in water - ideal bath toy that can also work in regular play out of water</t>
+          <t>Introducing the Holiday Harmonizer toy, a dream come true for both energetic children and their rest-seeking parents. Shaped as a hybrid of a car and boat, this ride-on toy seamlessly navigates both land and water. Equipped with safety features, it includes a satellite dish for real-time monitoring by a dedicated team of nannies. Parents can relax, knowing nannies are ready to spring into action if needed, flying over and parachuting in with concord speed. This toy engages children with interactive steering and adventure mode sound effects. ensuring thrilling rides to playgrounds or beachside, all while being securely overseen.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>m2rnv1hgviv0s-HMNL-529-2</t>
+          <t>m2l1m6mrcga4t-HMNL-329-2</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A race track that also includes water features and the requirements of both boat and car functionality, One competitor could be a boat with wheels, the other a car with floats and the two race across a track which includes water and road terrains.</t>
+          <t>the second toy is an interesting game where the aim would be to create a boat using building blocks, but the boat would need to float so you would have to not build it with too much weight, it would need storage and a ramp, the aim would be to slide the car from the top of the boat and get the car on land. The building blocks would allow for crazy designs and unique scenarios and the twist of landing the car would mean a good ramp would need to be built.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>m2rnv1hgviv0s-HMNL-529-3</t>
+          <t>m2kwcueqll85n-AINL-221-1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A toddler toy - steamboat with wheels on the side which spin when you pour water into the funnel. It floats in the bath and sprays water when the wheels spin.</t>
+          <t>let us make a toy car with a few factors. It must be in rectangular shape, and it must have 4 tires</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>m2rnvrfp4i6dw-AINL-533-1</t>
+          <t>m2ko6asjd367j-HMNL-57-3</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Introduction the AeroMariner Quest Ship, a unique toy that seamlessly integrates the elements of a car, a boat and even a flying vehicle for an immersive multi terrain adventure. Its construction incorporates durable, lightweight materials such as carbon fibre and waterproof polymers, ensuring longevity. With its embedded smart sensors, users can trigger interactive AR adventures and missions which is accessible via an app.</t>
+          <t>Hydro car- This is a toy that can transform from a boat into a car. It allows kids to play imaginatively.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>m2rnvrfp4i6dw-AINL-533-2</t>
+          <t>m2kzo3gry4sg7-HMNL-281-4_duplicate</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Meet TideTracker, a new novel toy concept that combines a car, a boat and an exciting treasure hunt theme. This set includes a versatile vehicle that morphs from a car into a boat with the flip of a level. The use of the map encourages imaginative play, cooperation and the development of problem-solving skills.</t>
+          <t>surfboard- a surfboard created from hard foam, that hardens when dry, then you can attach wheels to act as a skateboard.</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>m2rnvrfp4i6dw-AINL-533-3</t>
+          <t>m2knudkb7fk0d-HMNL-49-3_duplicate</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Meet the HydroChase Racer, a cutting edge toy that takes the car-boat hybrid concept to new heights. This toy features a modular design, allowing children to reconfigure it between different modes. Engaging, educational STEM components teach basic engineering principles as children customise their adventures.</t>
+          <t>Combine the car and boat to make a pirate themed go-cart, or boat cart. If a sail was added this could be a pretty fast go-cart...very cool.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>m2ro984jqrytb-HMNL-537-1</t>
+          <t>m2l0fv7e9rgdt-AINL-301-1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A Car-Boat - a simple amphibious vehicle, which has four wheels like a car, but a boat-shaped hull. When the car hits the water, the wheels sprout fin-like devices which can be used to propel it through the water. It's battery powered, and has a mobile phone app to allow remote control of the device.</t>
+          <t>the toy car transform into a boat upon submersion into water. Featuring wheels that retract and propellers that engage in its aquatic</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>m2ro984jqrytb-HMNL-537-2</t>
+          <t>m2kurwjk7mq1h-HMNL-193-1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A ferry - a large toy boat which has many smaller car toys within it. It can float, so can be played with in the bath.</t>
+          <t>Car-Boat Racing Track.  It can be a set that includes a race track where children can race their car-boats across both land and water. The track is designed with section of water and dry land, creating a fun and challenging race. The car-boats are powered by pushing or pulling, making the races interactive and competitive. It is perfect for group play, allowing kids to challenge their friends in exciting races on both surfaces. If possible add AR glasses to the KIT and whenever children use those glasses to play they see things like lap times and lap markers on the track.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>m2ro984jqrytb-HMNL-537-3</t>
+          <t>m2m4mukonj88m-AINL-429-1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A transformer-like toy which in one form is a car, but through twisting and reconfiguring the toy, it can transform into a boat.</t>
+          <t>The 'Mega Hydro Cruiser' is a large hybrid toy for seamless land-to-water adventures with realistic steering and with safety harnesses</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>m2l1gekcw4n5t-AINL-325-3_duplicate</t>
+          <t>m2kmb8c916li7-AINL-21-3</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Hydro-racer Challenge set is a set that includes two hybrid car-boat vehicles and an adaptive track with both land sections and water pools</t>
+          <t>A rescue adventure play set where the car can tow the boat on land and the boat can tow the car on water.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>m2m4mukonj88m-AINL-429-4_duplicate</t>
+          <t>m2ksjrj6s2pqd-AINL-149-1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>the above designs could be made specifically for boys and girls , and there could be an adult one too.</t>
+          <t>AquaRacerTranforable Vehicle- transforms from car to boat.  Offers exciting dual terrain experience.  Kids steer with a controller that switches between land and water modes.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>m2m0tpi4tmzcd-HMNL-345-3_duplicate</t>
+          <t>m2m1rq5101pds-HMNL-369-2</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A pull back car that has the features of a boat.  Whether it is a sailboat, speed boat or even a cruise ship.  The body of a boat with the durability needed to survive children of a young age.</t>
+          <t>a boat can be used as bathtub to wash stuffed animals and or dolls or to wash dolls clothes or</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>m2l0fv7e9rgdt-AINL-301-1_duplicate</t>
+          <t>m2kzcscun7ajc-HMNL-273-1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>the toy car transform into a boat upon submersion into water. Featuring wheels that retract and propellers that engage in its aquatic</t>
+          <t>make a car in the shape of a box with four tires, it has to be black in color only</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>m2m2hcth2ze2x-HMNL-385-2_duplicate</t>
+          <t>m2krxie1v5a0c-AINL-133-1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>My second idea is for a larger vehicle with wheelsthat the child can sit in and propel with their feet (it would have no floor, so the child's feet could push the vehicle along. It would be steered using a steering wheel. It would again be capable of floating, though it would need to be VERY stable! When in the water, the child could either propel it by kicking their feet, or better still, there would be hand cranked rotary paddles (like on a paddle-steamer) each side that could function both to propel the boat and to steer it. Another version might also use hand-cranking to propel and steer the vehicle on land.</t>
+          <t>AeroSplash Racer: Dynamic hybrid vehicle seamlessly transitions between land and water with retractable aquatic fins and amphibious wheels, fueled by kid-powered propulsion.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>m2krgvphzcdte-AINL-125-1_duplicate</t>
+          <t>m2m5rz0df8x4h-HMNL-457-3</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Together with AI we want to create a remote controlled named AquaCruise. The design will be a hybrid to car.</t>
+          <t>This car will be able to split down the middle with the sides of the car extending outward to reveal a solid boat hull down the center.</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>m2m5rz0df8x4h-HMNL-457-1_duplicate</t>
+          <t>m2kzihhys21m1-AINL-277-3</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>This toy will be a car on the bottom side and an inverted boat on the topside. Once the car is driven into deep enough water, it will flip over. The boat side of the toy will no funtion properly and the car will be inverted on the top but covered with a small dome to hide the undercarriage.</t>
+          <t>The SeaRoad Cruiser, a ride-on toy that children can use both in the water and on land. It would be made of plastic and it would have both wheels and pontoons.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>m2kzsg6e23cpq-AINL-285-2_duplicate</t>
+          <t>m2ko27n9jy57w-AINL-53-1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Introducing the 'Eco racer'. This innovatively designed toy car encourages environmental awareness among children, the eco racer is solar powered, featuring a compact photovoltaic panel on its roof that energizes a small, quite engine.</t>
+          <t>An amphibious vehicle which transforms from a car to a boat and vice versa easily. The wheels fold away and drive the boat as propellors.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>m2kr7wqqysdpr-HMNL-121-3_duplicate</t>
+          <t>m2km9dmge4d18-HMNL-9-1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Water car is another idea of the design toys a child can play with combining car and boat. Kids will love to play with this design and will improve production.</t>
+          <t>River Rover - a dual-action toy that switches from a Land Rover to a boat.  this toy should have a hinge system to retract the tyres to turn the car into a boat. this toy should be made of plastic to ensure it is able to switch from land to water.  it should be accessorised with headlights and windows like a car and be complete with a detachable sail like a boat.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>m2ko27n9jy57w-AINL-53-1_duplicate</t>
+          <t>m2kw4g5lrbgp1-HMNL-217-1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>An amphibious vehicle which transforms from a car to a boat and vice versa easily. The wheels fold away and drive the boat as propellors.</t>
+          <t>The toy is sail and drive. The design would have a pivot attached to it in the middle with both the car placed on top and the boat placed at the bottom. The idea  is to reveal either a car when pushed up to and to reveal the boat when pushed down.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>m2m5yr7dwffsa-AINL-461-3_duplicate</t>
+          <t>m2kmyrigc36la-HMNL-33-3</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>The WaveRider Explorer is an adventure companion for children ages 5-11. It combines the thrill of a rechargeable ride-on car with the safety of a beach-friendly floating boat. On sand, the WaveRider effortlessly navigates thanks to its robust, all-terrain wheels and intuitive controls... when adventure shifts to the shore, a quick transformation turns the car into a buoyant mini-boat, perfect for floating along gentle beach waves. Integrated safety features such as rollover detection, a cloth-padded wheel that can be unrolled for use as a sail, and an inflatable hull make this an incredible toy. Parental supervision encouraged; this ride-on electric car and semi-electric mini-boat are not substitutes for proper safety flotation devices. The boat is weighted to stay upright in the water and upright on land.</t>
+          <t>I will design a car by making the front to have the shape of a boat and the back to have the shape of a car, this would be appealing to kids as well. It will look like a scifi design, with a vibrant colour.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>m2q6ytxmptzbv-HMNL-481-1_duplicate</t>
+          <t>m2kzo3gry4sg7-HMNL-281-3</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>a floatable toy that looks like a boat but has working wheels on the bottom, so the toy can function as a boat during bath time and also outside of the bath on any other surface</t>
+          <t>Bocar- a small hot wheel like toy, that looks like car from the top, and like a boat from the underside, it lets children have fun creating various scenarios for funtime.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>m2kt64ghshou1-AINL-165-2_duplicate</t>
+          <t>m2q96c6466ggf-HMNL-497-3</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>This toy is a car/boat for your guinea pig or hamster! It has a ball on a gyroscope that holds the critter and allows it to stay stable as the car/boat travels. It is also water tight just in case, but must only be used under adult supervision.</t>
+          <t>A toy for the beach. The top is shaped like a car, mostly intended to be seen and used to mimic driving around. The underneath is hollow and when placed in the water will float and look like a boat, but can also be used to scoop sand, to help build a city or roadmap out of sand, so that the toy can be turned over again and be driving around</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>m2q8wbm94q90b-AINL-485-1_duplicate</t>
+          <t>m2m4vz3rhjta6-HMNL-433-2</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>a hybrid vehicle which can be used as both a car and boat. it is big enough for the child to sit in and can easily be converted between a car on land and a boat on water using a retracting wheel system and hidden propellers.</t>
+          <t>I would pull apart the boat and the car and reserve whatever pieces were safe for children to play with so they could repurpose them creatively. Research suggests that when children are allowed to play with tools like wood, hammer and nails they thrive. It's good for their development, builds problem-solving skills and encourages creativity. The toy I would make would be the equivalent of a box of Lego or wooden blocks, but instead it would be a sort of kit containing real materials from a car and a boat. Children could be allowed to make anything they wanted from this kit, from playhouses to works of art.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>m2rligqcb9g87-AINL-525-1_duplicate</t>
+          <t>m2komtx5dfvd8-AINL-69-2</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>The aquacruiser is a toy that has wheels for onb land but also has the ability to transform into a boat by folding the wheels in and pulling out a propellor.  The car shape is aero and aqua dynamic to enable a smooth transition from land to water.  the toy is made from robust plastic and is colourful but has decals that show that it also has spped on both land and water.</t>
+          <t>The Drift and Float Racer Bots are exicitng and fun toys for kids to play with together! These are individual little bots or robots that are controlled via an included remote or an app on a tablet or phone. They can play fun guided missions and get points, playing against and with one another. The bots are part car part boat, so they can easily move across different terrains. They also have Bluetooth connectivity so they can communicate with each other, encouraging fun and cooperative play.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>m2l16144e7ao4-HMNL-321-3_duplicate</t>
+          <t>m2kyoskr6dcwz-HMNL-257-3_duplicate</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>A track base toy featuring cars that transforms in to boats, navigating through water filled loops and jumps . .</t>
+          <t>A lifesize boat that children can actually go on and explore everywhere on the boat and dress up pretend to be characters on  a boat such as a captain or a sailor or a passenger</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>m2kpuix85gs3q-AINL-93-3_duplicate</t>
+          <t>m2ks1569zvrig-HMNL-137-1</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>A car within a sphere - it can roll along on land but also on water it can be kept stable and float, with built-in propellers to help it glide along.</t>
+          <t>I would consider designing a car that floats on water, such that a child can play with it on the ground and in the swimming pool.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>m2m4xtd7wizdm-AINL-437-3_duplicate</t>
+          <t>m2kxwokake7k9-HMNL-241-2</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Introducing the TurboSplash Duo, a captivating toy that seamlessly integrates car and boat functionalities into one. This design features an elegant convertible chassis with retractable aquatic elements. As a robust car, it sports a full-suspension system and colourful racing stripes for land escapades. Transitioning to water mode is a breeze with a pull-and-lock mechanism that extends floatable pontoons and sleek propellers. The turboSplash includes an automatic lock function which turns on when water mode is activated, and allows the doors of the vehicle to lock, ensuring that any dolls or items in the vehicle do not get wet when placed in the water. The TurboSplash Duo uses a rechargeable power system, allowing for extended journeys on land and water. Equipped with glow-in-the-dark components, it offers a sensory experience as children navigate both land and aquatic terrains, sparking limitless creativity and play.</t>
+          <t>Please design a hybrid car and boat toy, where the upper is like a car an the bottom area is like a boat. So like an upper that has a hood and enclosed cab and windows but the smoothness of a boat.</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>m2kqp7fjodp83-AINL-109-2_duplicate</t>
+          <t>m2kstaz2blxwu-AINL-157-3</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>A race between land and sea. A friendly competition where kids could see which transportation method can make it to the finish line first!</t>
+          <t>Each hull should be made of thickened, marine-grade aluminiun or durable composite material.  Flat top deck reinforced with slip resistant surface, with retractable car restraints</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>m2krre0v7esf8-HMNL-129-2_duplicate</t>
+          <t>m2m5gra0fqq9b-AINL-445-1</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>A hovercraft that when it goes on land has wheels that then turn it into a giant car that can drive.</t>
+          <t>TurbiWave cruiser is used as dual function toy where it is a speed boat and a racing car combined together.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>m2kw4g5lrbgp1-HMNL-217-3_duplicate</t>
+          <t>ATTENTION_CHECK_5_NL</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Yacht outing would be the name for the toy design. The toy can be made foldable in other to reveal either the boat or the car.</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>m2m4bqtrkswl5-HMNL-417-3_duplicate</t>
+          <t>m2kzo3gry4sg7-HMNL-281-1</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>A car and a boat artwork in which virtual reality is used so they appear to move in tandem, and as if they are actually before the child. This combines modern technology and engages the child in it, and attracts attention and novelty.</t>
+          <t>MUDRUNNER- a small remote vehicle that can travel on both land and water, small yet powerful electric engine allows it to gain high speeds on land, just by switching wheels to propellers it can transform into a boat. Due to it's light weight it also floats on surface.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>m2l1yo7z059so-AINL-333-2_duplicate</t>
+          <t>ATTENTION_CHECK_10_NL</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>A stylish, convertible design that seamlessly transitions from land to water, offering versatility with durable wheels and a robust hull for smooth sailing</t>
+          <t>Please select the fourth option for all dimensions below</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>m2kq1v3jpwy9d-HMNL-97-2_duplicate</t>
+          <t>m2l16144e7ao4-HMNL-321-3</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>A building block toy similar to Lego which can be built into different vehicles including a car and a boat.</t>
+          <t>A track base toy featuring cars that transforms in to boats, navigating through water filled loops and jumps . .</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>m2kmyrigc36la-HMNL-33-1_duplicate</t>
+          <t>m2m53l3x1rdph-HMNL-441-3</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>I will design a toy car that can work in floor and also in water, to have the shape of a boat. It can be played with in both land and water. I will call it Caraqua.</t>
+          <t>very innovating to keep children bust while outdoor. helps kids be busy with outdoor activities and water sport. good for body heathy</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>m2kpk3zdod0iz-AINL-85-2_duplicate</t>
+          <t>m2m5r0ph3lbut-AINL-453-1_duplicate</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>A colourful boat, which has a remote control. The boat can be played with in the bath, on lakes or rivers. It can be controlled from the land or in the water. There is a special button, which when pressed makes the boat jump in the air and transform into a car. This happens when the boat is taken onto land. It comes in a number of colours, which are attractive to children. It has different difficulty levels for the different age groups on the remote control.</t>
+          <t>Aqua cruise adventure boat for children aged 3 to 6. It features vibrant colours and switches from boat to car with functional wheels and a hidden propeller to be used when the wheels are retracted.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>m2km9dmge4d18-HMNL-9-3_duplicate</t>
+          <t>m2kxcckozq0y7-HMNL-233-2</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>From river to road - a small car/boat  with a detachable sail like a boat and bright colours to appeal to kids  hinges to retract the tires and transform the car into a boat</t>
+          <t>You could make a building block style toy where the child could put a toy together and the toy could be a combo car and boat, such as like the German Volkswagen Schwimmwagen, which existed in real life, and it was a car that could drive through water also.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>m2l0hk8ch4e9t-HMNL-305-2_duplicate</t>
+          <t>m2m0sfqrktntr-AINL-341-2</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>A ridable powerwheels car that the kids can drive. Works like a regular powerwheels car, but can add an inflatible ring that attaches to the outside of the car. adding a propeller to the drive train can convert from a car to a boat.</t>
+          <t>A modular set that can be combined in various ways to create multiple car-boat creations. Snap on parts are easy for kids to work with and follow their creativity.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>m2rnv1hgviv0s-HMNL-529-2_duplicate</t>
+          <t>m2q8wbm94q90b-AINL-485-3</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>A race track that also includes water features and the requirements of both boat and car functionality, One competitor could be a boat with wheels, the other a car with floats and the two race across a track which includes water and road terrains.</t>
+          <t>a modular system where children can build their own cityscapes which float on water for use in the bath or swimming pools. the kit features different vehicles which can be used in the water or on the cityscapes to recreate their own worlds.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>m2kos8of3weda-HMNL-73-1_duplicate</t>
+          <t>m2m5r0ph3lbut-AINL-453-2</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>A toy car and boat in one. The car can be pushed around in the house, which can then be turned into a boat to use in a bath or swimming pool. There could be subtle shifts in design for the child to do to go from one state to another. The people could also have different clothes to go from car to boat.</t>
+          <t>Galactic voyager amphibious explorer is futuristic for children aged 7 to 10. It combines space exploration with earthbound versatility. In car mode, its retractable landing ear doubles as high tech tires and transforming into boat mode, it features a water cannon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>m2m5gra0fqq9b-AINL-445-2</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>HydroDrift Explorer is a designed with adventure in mind which is fun to explore it is a robust toy that navigates through water</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>m2kl3jo2fxe83-AINL-5-2</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Sea Eco Fairer Kit - This toy is designed to teach children about environmentally friendly energy sources through play. Also combines a science and technology element too. This car is amphibious and can sail on water and drive on land. It is powered by solar energy through solar panels which the children can attach to the car themselves. The toy is also fully made from recycled materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>m2kqv3ruqyoqn-HMNL-113-2</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2nd Idea there are two factions, the crimsons cars and the boisterous boats, its a toy design based upon characters in vehcicles, and they are constantly racing against each other in tracks which have been designed to accomodate both set of vehiclee. Think scaleletrixs but with a water element. In addition there is a more expensive advanced version where by you can make your own track around your house by setting up various cameras in your home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>m2rnvrfp4i6dw-AINL-533-3</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Meet the HydroChase Racer, a cutting edge toy that takes the car-boat hybrid concept to new heights. This toy features a modular design, allowing children to reconfigure it between different modes. Engaging, educational STEM components teach basic engineering principles as children customise their adventures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>m2kyti1pmlz7x-AINL-261-1</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>I need boat car that is electric powered and self driving with space that looks just like a car but very functional too like a boat</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>m2kz7crup2pz5-AINL-269-2</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Tidal Trek Hovercraft - A model merging drone and toy car tech enabling hover transitions. On land it's a sports coupe and in the water propulsion fans create lift-over- water surfaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>m2kpuix85gs3q-AINL-93-3</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>A car within a sphere - it can roll along on land but also on water it can be kept stable and float, with built-in propellers to help it glide along.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>m2m1yhll5tmol-AINL-373-2</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>A dual environment toy. It begins as a off road car. Then when a switch is pressed the wheels retract and a propeller system appears. Sound effects are included. Accessory packs can be used to modify the toy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>m2kzcscun7ajc-HMNL-273-2</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>mare a boat in form of an oval shape, it has to be a toy with two colors only, white and black</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>m2komtx5dfvd8-AINL-69-1</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>The Turbo Tideracer. A thrilling and fun toy that puts a modern spin on transformers as it morphs effortlessly from a speedy car to a cool boat. Using new technology and usb-c rechargeable, it's requires just a simple push of a button - the Turbo Tideracer's wheels fold in seamlessly as the pontoons extend. Kids will love winding up the manual propeller (an auto-version is also available) and watching it speed through water. The toy lights up with colourful LED lights as it transforms giving it a sprinkle of magic and anticipation with every play session. Perfect for time in the tub or backyard races!</t>
         </is>
       </c>
     </row>
